--- a/自動計測データ.xlsx
+++ b/自動計測データ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan/Desktop/Yumiko/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Yumiko/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3F32C8-D89D-5C49-B9E0-01DE5DD69B7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4640B24E-E095-9840-B7A8-1D3DAB195C11}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25380" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="29080" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="396">
   <si>
     <t>topdir</t>
   </si>
@@ -1042,88 +1042,172 @@
     <t>17daruma4o02_lBOTTOM.jpg</t>
   </si>
   <si>
-    <t>86.0556153789877</t>
+    <t>71.4142678624585</t>
   </si>
   <si>
-    <t>-101.749265390605</t>
+    <t>59.0773259313980</t>
   </si>
   <si>
-    <t>218.917028778745</t>
+    <t>253.813016858294</t>
   </si>
   <si>
-    <t>-7.24342712912226</t>
+    <t>154.877841841125</t>
   </si>
   <si>
-    <t>85.3681948862974</t>
+    <t>48.0501228590491</t>
   </si>
   <si>
-    <t>10.5060602515903</t>
+    <t>-83.1540282875126</t>
   </si>
   <si>
-    <t>313.833358372405</t>
+    <t>14.0269831922754</t>
   </si>
   <si>
-    <t>145.483606925351</t>
+    <t>23.9279489926418</t>
   </si>
   <si>
-    <t>208.509392613307</t>
+    <t>52.7510881942051</t>
   </si>
   <si>
-    <t>179.227722652657</t>
+    <t>36.5677964389587</t>
   </si>
   <si>
-    <t>153.870499315388</t>
+    <t>69.3931418631077</t>
   </si>
   <si>
-    <t>227.514283802826</t>
+    <t>200.705829777654</t>
   </si>
   <si>
-    <t>113.203592274639</t>
+    <t>216.762179631224</t>
   </si>
   <si>
-    <t>310.329789811055</t>
+    <t>-12.6617345320907</t>
   </si>
   <si>
-    <t>-46.2482955544438</t>
+    <t>144.317861361227</t>
   </si>
   <si>
-    <t>202.328608736616</t>
+    <t>239.365313021284</t>
   </si>
   <si>
-    <t>158.497490943371</t>
+    <t>199.601912372205</t>
   </si>
   <si>
-    <t>74.5193218827796</t>
+    <t>167.770643740617</t>
   </si>
   <si>
-    <t>403.007371054782</t>
+    <t>189.685569458814</t>
   </si>
   <si>
-    <t>199.607021668833</t>
+    <t>207.980570980678</t>
   </si>
   <si>
-    <t>289.590071308903</t>
+    <t>151.221734350294</t>
   </si>
   <si>
-    <t>105.187549320881</t>
+    <t>141.696301907633</t>
   </si>
   <si>
-    <t>403.460822599098</t>
+    <t>231.725063052353</t>
   </si>
   <si>
-    <t>176.642068255790</t>
+    <t>245.103629501382</t>
   </si>
   <si>
-    <t>144.242929749025</t>
+    <t>59.6062705659149</t>
   </si>
   <si>
-    <t>65.4951632924677</t>
+    <t>71.1484945998202</t>
   </si>
   <si>
-    <t>410.010204087437</t>
+    <t>8.56901452084688</t>
   </si>
   <si>
-    <t>196.147652206109</t>
+    <t>109.638393467207</t>
+  </si>
+  <si>
+    <t>109.027510185369</t>
+  </si>
+  <si>
+    <t>227.245680756501</t>
+  </si>
+  <si>
+    <t>188.658575702455</t>
+  </si>
+  <si>
+    <t>195.590255165232</t>
+  </si>
+  <si>
+    <t>102.635834170278</t>
+  </si>
+  <si>
+    <t>57.8650065043587</t>
+  </si>
+  <si>
+    <t>210.738393201930</t>
+  </si>
+  <si>
+    <t>376.656886756814</t>
+  </si>
+  <si>
+    <t>262.108570541041</t>
+  </si>
+  <si>
+    <t>-83.5403144787270</t>
+  </si>
+  <si>
+    <t>228.916461580242</t>
+  </si>
+  <si>
+    <t>393.436414562001</t>
+  </si>
+  <si>
+    <t>285.909712788209</t>
+  </si>
+  <si>
+    <t>291.008771160041</t>
+  </si>
+  <si>
+    <t>425.836642989990</t>
+  </si>
+  <si>
+    <t>275.976801391915</t>
+  </si>
+  <si>
+    <t>268.612508576615</t>
+  </si>
+  <si>
+    <t>123.653396652619</t>
+  </si>
+  <si>
+    <t>198.775320244705</t>
+  </si>
+  <si>
+    <t>235.598009093190</t>
+  </si>
+  <si>
+    <t>80.6572694557674</t>
+  </si>
+  <si>
+    <t>97.3529194246904</t>
+  </si>
+  <si>
+    <t>143.876738635380</t>
+  </si>
+  <si>
+    <t>319.912928736338</t>
+  </si>
+  <si>
+    <t>262.538596625504</t>
+  </si>
+  <si>
+    <t>-5.97519360333157</t>
+  </si>
+  <si>
+    <t>204.378532298129</t>
+  </si>
+  <si>
+    <t>332.076207138618</t>
   </si>
 </sst>
 </file>
@@ -1534,14 +1618,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A207" sqref="A207:XFD207"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="H219" sqref="H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="26" max="26" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:82">
@@ -1891,100 +1975,100 @@
         <v>246.64241793743309</v>
       </c>
       <c r="AQ2">
-        <v>204.5</v>
+        <v>205.5</v>
       </c>
       <c r="AR2">
-        <v>184.43077409930501</v>
+        <v>189.37710086445</v>
       </c>
       <c r="AS2">
-        <v>181.04918877559001</v>
+        <v>182.078423345224</v>
       </c>
       <c r="AT2">
-        <v>197.5</v>
+        <v>196.5</v>
       </c>
       <c r="AW2">
-        <v>70</v>
+        <v>69.5</v>
       </c>
       <c r="AX2">
-        <v>203.92657132986</v>
+        <v>152.106207417268</v>
       </c>
       <c r="AY2">
-        <v>128.731227935178</v>
+        <v>229.12704130593599</v>
       </c>
       <c r="AZ2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="BC2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BD2">
-        <v>147.53256348796199</v>
+        <v>141.97439326198901</v>
       </c>
       <c r="BE2">
-        <v>228.23249906641101</v>
+        <v>217.10385838353699</v>
       </c>
       <c r="BF2">
-        <v>44.775836411129113</v>
+        <v>79.681041714969709</v>
       </c>
       <c r="BG2">
-        <v>195.15452713710499</v>
+        <v>138.83491747995399</v>
       </c>
       <c r="BH2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="BJ2">
         <v>67</v>
       </c>
       <c r="BK2">
-        <v>157.43607221343899</v>
+        <v>164.85968550015801</v>
       </c>
       <c r="BL2">
-        <v>21.302937029918802</v>
+        <v>22.245285740490299</v>
       </c>
       <c r="BM2">
-        <v>415.57807965887298</v>
+        <v>401.05797675501998</v>
       </c>
       <c r="BN2">
-        <v>179.557676786169</v>
+        <v>237.40951214668399</v>
       </c>
       <c r="BO2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="BQ2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BR2">
-        <v>259.35320689023598</v>
+        <v>258.89248121991301</v>
       </c>
       <c r="BS2">
-        <v>105.334622762398</v>
+        <v>173.54755145612</v>
       </c>
       <c r="BT2">
-        <v>351.95056536625299</v>
+        <v>226.22237927198199</v>
       </c>
       <c r="BU2">
-        <v>190.02628822902199</v>
+        <v>293.88782333808399</v>
       </c>
       <c r="BV2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BX2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BY2">
-        <v>160.52858564102399</v>
+        <v>152.292260619171</v>
       </c>
       <c r="BZ2">
-        <v>29.2473167532358</v>
+        <v>74.967688482139991</v>
       </c>
       <c r="CA2">
-        <v>435.68673734473498</v>
+        <v>365.74540874848498</v>
       </c>
       <c r="CB2">
-        <v>173.19641757283799</v>
+        <v>236.608272008386</v>
       </c>
       <c r="CC2">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:82">
@@ -2594,7 +2678,9 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
@@ -2848,16 +2934,16 @@
         <v>30</v>
       </c>
       <c r="V7">
-        <v>233.29218051633219</v>
+        <v>241.3910750224602</v>
       </c>
       <c r="W7">
-        <v>108.94064081895969</v>
+        <v>101.16877057610409</v>
       </c>
       <c r="X7">
-        <v>77.169459095712128</v>
+        <v>84.326824469821986</v>
       </c>
       <c r="Y7">
-        <v>742</v>
+        <v>223</v>
       </c>
       <c r="Z7">
         <v>18033</v>
@@ -2866,136 +2952,136 @@
         <v>526</v>
       </c>
       <c r="AC7">
-        <v>23.632953798639701</v>
+        <v>34.422919751985447</v>
       </c>
       <c r="AD7">
-        <v>81.397816989194496</v>
+        <v>43.681880027820988</v>
       </c>
       <c r="AE7">
-        <v>-72.602993782855208</v>
+        <v>12.6312888587932</v>
       </c>
       <c r="AF7">
-        <v>161.110988220097</v>
+        <v>116.38911818066499</v>
       </c>
       <c r="AG7">
-        <v>28.241595421115001</v>
+        <v>10.1824274788808</v>
       </c>
       <c r="AH7">
-        <v>4.3581590985097272</v>
+        <v>4.6179278139163209</v>
       </c>
       <c r="AJ7">
-        <v>6.0827625302982193</v>
+        <v>112.1115515903691</v>
       </c>
       <c r="AK7">
-        <v>75.854571983589196</v>
+        <v>156.20309647791601</v>
       </c>
       <c r="AL7">
-        <v>37.957021938914302</v>
+        <v>136.99666068918401</v>
       </c>
       <c r="AM7">
-        <v>252.24013845252099</v>
+        <v>265.08461462466198</v>
       </c>
       <c r="AN7">
-        <v>180.00253727118701</v>
+        <v>214.62887126042401</v>
       </c>
       <c r="AO7">
-        <v>244.20893458097919</v>
+        <v>250.5796897177384</v>
       </c>
       <c r="AQ7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AR7">
-        <v>198.74144626423299</v>
+        <v>197.98117706523101</v>
       </c>
       <c r="AS7">
-        <v>187.99657810267399</v>
+        <v>183.87056073040699</v>
       </c>
       <c r="AT7">
-        <v>191</v>
+        <v>193.5</v>
       </c>
       <c r="AW7">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="AX7">
-        <v>149.67597706544501</v>
+        <v>223.07593597842299</v>
       </c>
       <c r="AY7">
-        <v>229.485245176989</v>
+        <v>270.13929892586702</v>
       </c>
       <c r="AZ7">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="BC7">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="BD7">
-        <v>118.314053386079</v>
+        <v>147.895029692544</v>
       </c>
       <c r="BE7">
-        <v>267.06222395923299</v>
+        <v>187.69060502384301</v>
       </c>
       <c r="BF7">
-        <v>10.132781467249</v>
+        <v>69.022941308090708</v>
       </c>
       <c r="BG7">
-        <v>180.22587502412301</v>
+        <v>177.30863146426501</v>
       </c>
       <c r="BH7">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="BJ7">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="BK7">
-        <v>160.96856661987201</v>
+        <v>229.98416869834099</v>
       </c>
       <c r="BL7">
-        <v>37.620934089948797</v>
+        <v>178.625053181027</v>
       </c>
       <c r="BM7">
-        <v>414.45064654942098</v>
+        <v>359.06622440818802</v>
       </c>
       <c r="BN7">
-        <v>218.841487557211</v>
+        <v>275.11102239282599</v>
       </c>
       <c r="BO7">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="BQ7">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="BR7">
-        <v>288.34879043822502</v>
+        <v>235.45039146492601</v>
       </c>
       <c r="BS7">
-        <v>103.733467822213</v>
+        <v>212.28542029616699</v>
       </c>
       <c r="BT7">
-        <v>370.45476816773697</v>
+        <v>304.90151397333</v>
       </c>
       <c r="BU7">
-        <v>205.52953269218</v>
+        <v>193.934485273767</v>
       </c>
       <c r="BV7">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BX7">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="BY7">
-        <v>128.54834570624001</v>
+        <v>224.462330165748</v>
       </c>
       <c r="BZ7">
-        <v>112.16445165429199</v>
+        <v>194.331757675175</v>
       </c>
       <c r="CA7">
-        <v>319.99625469097901</v>
+        <v>339.77175269506802</v>
       </c>
       <c r="CB7">
-        <v>240.76966949203299</v>
+        <v>265.86883857356099</v>
       </c>
       <c r="CC7">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:82">
@@ -3256,16 +3342,16 @@
         <v>30</v>
       </c>
       <c r="V9">
-        <v>242.6178598903837</v>
+        <v>251.92921427532019</v>
       </c>
       <c r="W9">
-        <v>118.7247652133387</v>
+        <v>125.26388106889689</v>
       </c>
       <c r="X9">
-        <v>76.499453423612522</v>
+        <v>79.213890146843738</v>
       </c>
       <c r="Y9">
-        <v>596</v>
+        <v>458</v>
       </c>
       <c r="Z9">
         <v>20001</v>
@@ -3274,136 +3360,136 @@
         <v>527</v>
       </c>
       <c r="AC9">
-        <v>24.255372066485691</v>
+        <v>36.88804740009158</v>
       </c>
       <c r="AD9">
-        <v>79.991129840529098</v>
+        <v>52.162707628490601</v>
       </c>
       <c r="AE9">
-        <v>-63.200706504595793</v>
+        <v>-8.5551233445638797</v>
       </c>
       <c r="AF9">
-        <v>144.974570628115</v>
+        <v>101.196611066117</v>
       </c>
       <c r="AG9">
-        <v>53.878456664941702</v>
+        <v>76.464319442886406</v>
       </c>
       <c r="AH9">
-        <v>6.153670520991751</v>
+        <v>20.30286940756849</v>
       </c>
       <c r="AJ9">
-        <v>6.1666666666666714</v>
+        <v>22.688714766988848</v>
       </c>
       <c r="AK9">
-        <v>64.783146751084104</v>
+        <v>69.435143809700605</v>
       </c>
       <c r="AL9">
-        <v>82.037333767748294</v>
+        <v>138.38480904579299</v>
       </c>
       <c r="AM9">
-        <v>193.890980834385</v>
+        <v>148.38952889157301</v>
       </c>
       <c r="AN9">
-        <v>212.38400909986001</v>
+        <v>245.989903664259</v>
       </c>
       <c r="AO9">
-        <v>245.91969500686159</v>
+        <v>251.92921427532019</v>
       </c>
       <c r="AQ9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AR9">
-        <v>197.17287171982099</v>
+        <v>197.85832018297199</v>
       </c>
       <c r="AS9">
-        <v>189.46380030750899</v>
+        <v>188.20501954131001</v>
       </c>
       <c r="AT9">
-        <v>192</v>
+        <v>192.5</v>
       </c>
       <c r="AW9">
-        <v>70.5</v>
+        <v>87</v>
       </c>
       <c r="AX9">
-        <v>149.97173918571201</v>
+        <v>163.23142058727001</v>
       </c>
       <c r="AY9">
-        <v>230.252502328633</v>
+        <v>239.44920086727001</v>
       </c>
       <c r="AZ9">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="BC9">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="BD9">
-        <v>115.78495894315201</v>
+        <v>149.895008345447</v>
       </c>
       <c r="BE9">
-        <v>270.07681025277401</v>
+        <v>203.18496954128699</v>
       </c>
       <c r="BF9">
-        <v>17.635038479393501</v>
+        <v>66.409001277514903</v>
       </c>
       <c r="BG9">
-        <v>156.39928735998899</v>
+        <v>128.38210200446201</v>
       </c>
       <c r="BH9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BJ9">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="BK9">
-        <v>127.917997391288</v>
+        <v>141.041988870951</v>
       </c>
       <c r="BL9">
-        <v>141.19528105176201</v>
+        <v>191.262922515138</v>
       </c>
       <c r="BM9">
-        <v>272.44596448171097</v>
+        <v>239.35756154014899</v>
       </c>
       <c r="BN9">
-        <v>272.34301078247302</v>
+        <v>315.49537936199403</v>
       </c>
       <c r="BO9">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="BQ9">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="BR9">
-        <v>288.30024444085399</v>
+        <v>261.62696398801899</v>
       </c>
       <c r="BS9">
-        <v>118.03438599889699</v>
+        <v>164.424437956666</v>
       </c>
       <c r="BT9">
-        <v>347.24817880556998</v>
+        <v>314.44247478970902</v>
       </c>
       <c r="BU9">
-        <v>239.76674056635801</v>
+        <v>262.98672229022799</v>
       </c>
       <c r="BV9">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BX9">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="BY9">
-        <v>145.27672414765999</v>
+        <v>140.86017317531599</v>
       </c>
       <c r="BZ9">
-        <v>94.496049766720205</v>
+        <v>179.663421628376</v>
       </c>
       <c r="CA9">
-        <v>327.58460267805702</v>
+        <v>258.309262601098</v>
       </c>
       <c r="CB9">
-        <v>256.07275981507098</v>
+        <v>307.87158303176898</v>
       </c>
       <c r="CC9">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:82">
@@ -3423,9 +3509,6 @@
       <c r="F10" t="s">
         <v>97</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10">
         <v>5</v>
       </c>
@@ -3466,16 +3549,16 @@
         <v>30</v>
       </c>
       <c r="V10">
-        <v>218.4510597992975</v>
+        <v>235.42963998739449</v>
       </c>
       <c r="W10">
-        <v>116.0159837780853</v>
+        <v>123.5112013180115</v>
       </c>
       <c r="X10">
-        <v>82.97932121380893</v>
+        <v>82.168109143359416</v>
       </c>
       <c r="Y10">
-        <v>818</v>
+        <v>771</v>
       </c>
       <c r="Z10">
         <v>17948</v>
@@ -3484,145 +3567,143 @@
         <v>542</v>
       </c>
       <c r="AC10">
-        <v>27.324753777794701</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>340</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>342</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>343</v>
+        <v>37.578051323104397</v>
+      </c>
+      <c r="AD10">
+        <v>61.072588093726097</v>
+      </c>
+      <c r="AE10">
+        <v>-46.462507560032101</v>
+      </c>
+      <c r="AF10">
+        <v>158.63844013328901</v>
+      </c>
+      <c r="AG10">
+        <v>41.425056263759707</v>
       </c>
       <c r="AH10">
-        <v>3.692813888566846</v>
+        <v>5.9225464034990711</v>
       </c>
       <c r="AJ10">
-        <v>5.3567195599960611</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>344</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>347</v>
+        <v>19.02629759044045</v>
+      </c>
+      <c r="AK10">
+        <v>104.81154681244099</v>
+      </c>
+      <c r="AL10">
+        <v>15.7481517713538</v>
+      </c>
+      <c r="AM10">
+        <v>308.75091861888302</v>
+      </c>
+      <c r="AN10">
+        <v>169.97485179094301</v>
       </c>
       <c r="AO10">
-        <v>244.37014406789669</v>
+        <v>244.91576669935009</v>
       </c>
       <c r="AQ10">
-        <v>202.5</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>348</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>349</v>
+        <v>206</v>
+      </c>
+      <c r="AR10">
+        <v>203.30693295075801</v>
+      </c>
+      <c r="AS10">
+        <v>183.42076436234001</v>
       </c>
       <c r="AT10">
-        <v>198</v>
+        <v>196.5</v>
       </c>
       <c r="AW10">
-        <v>72</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>350</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>351</v>
+        <v>87</v>
+      </c>
+      <c r="AX10">
+        <v>164.533394072655</v>
+      </c>
+      <c r="AY10">
+        <v>236.24772918189899</v>
       </c>
       <c r="AZ10">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="BC10">
-        <v>177</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>352</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>353</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>354</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>355</v>
+        <v>169</v>
+      </c>
+      <c r="BD10">
+        <v>123.051223610693</v>
+      </c>
+      <c r="BE10">
+        <v>291.09202432786702</v>
+      </c>
+      <c r="BF10">
+        <v>-31.122375508007799</v>
+      </c>
+      <c r="BG10">
+        <v>182.819874159091</v>
       </c>
       <c r="BH10">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="BJ10">
-        <v>71</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>356</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>357</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>358</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>359</v>
+        <v>86</v>
+      </c>
+      <c r="BK10">
+        <v>178.67707377421601</v>
+      </c>
+      <c r="BL10">
+        <v>77.889168068591999</v>
+      </c>
+      <c r="BM10">
+        <v>407.15448435847611</v>
+      </c>
+      <c r="BN10">
+        <v>226.87829071851701</v>
       </c>
       <c r="BO10">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="BQ10">
-        <v>228</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>360</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>361</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>362</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>363</v>
+        <v>243</v>
+      </c>
+      <c r="BR10">
+        <v>250.29240656103201</v>
+      </c>
+      <c r="BS10">
+        <v>174.32897174333399</v>
+      </c>
+      <c r="BT10">
+        <v>345.61910777716099</v>
+      </c>
+      <c r="BU10">
+        <v>215.57578400331499</v>
       </c>
       <c r="BV10">
         <v>202</v>
       </c>
       <c r="BX10">
-        <v>73</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>364</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>365</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>366</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>367</v>
+        <v>88</v>
+      </c>
+      <c r="BY10">
+        <v>175.929501432292</v>
+      </c>
+      <c r="BZ10">
+        <v>54.4108333720148</v>
+      </c>
+      <c r="CA10">
+        <v>427.21221099680002</v>
+      </c>
+      <c r="CB10">
+        <v>220.29276106544501</v>
       </c>
       <c r="CC10">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:82">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" t="s">
         <v>80</v>
       </c>
@@ -3642,7 +3723,7 @@
         <v>95</v>
       </c>
       <c r="J11">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -23923,9 +24004,7 @@
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="1">
-        <v>1</v>
-      </c>
+      <c r="B112" s="1"/>
       <c r="C112" t="s">
         <v>80</v>
       </c>
@@ -36643,148 +36722,148 @@
         <v>30</v>
       </c>
       <c r="V175">
-        <v>129.63076401420301</v>
+        <v>132.01630495961459</v>
       </c>
       <c r="W175">
-        <v>122.11092397291991</v>
+        <v>123.8652529771891</v>
       </c>
       <c r="X175">
-        <v>43.760079964854171</v>
+        <v>39.960921358608239</v>
       </c>
       <c r="Y175">
-        <v>350</v>
+        <v>437</v>
       </c>
       <c r="AC175">
-        <v>54.582971702448461</v>
+        <v>41.006383909839258</v>
       </c>
       <c r="AD175">
-        <v>60.154460511199702</v>
+        <v>62.7833017954678</v>
       </c>
       <c r="AE175">
-        <v>93.935521115771792</v>
+        <v>110.325734670898</v>
       </c>
       <c r="AF175">
-        <v>-14.473254979378201</v>
+        <v>-20.493057273375701</v>
       </c>
       <c r="AG175">
-        <v>4.9503252950291792</v>
+        <v>5.2255687536571198</v>
       </c>
       <c r="AH175">
-        <v>5.6270067503824226</v>
+        <v>5.2642692218100677</v>
       </c>
       <c r="AJ175">
-        <v>21.005951537600001</v>
+        <v>5.5</v>
       </c>
       <c r="AK175">
-        <v>48.162292225927999</v>
+        <v>19.590754075216999</v>
       </c>
       <c r="AL175">
-        <v>119.318684436751</v>
+        <v>128.53326779473099</v>
       </c>
       <c r="AM175">
-        <v>91.14003283702111</v>
+        <v>84.287688736120089</v>
       </c>
       <c r="AN175">
-        <v>149.22117211405899</v>
+        <v>151.23844639047999</v>
       </c>
       <c r="AO175">
-        <v>181.77856454282619</v>
+        <v>191.8437816345145</v>
       </c>
       <c r="AQ175">
-        <v>195.5</v>
+        <v>195</v>
       </c>
       <c r="AR175">
-        <v>192.96370819743899</v>
+        <v>196.016275986159</v>
       </c>
       <c r="AS175">
-        <v>188.88126435320001</v>
+        <v>189.494337849229</v>
       </c>
       <c r="AT175">
-        <v>164.5</v>
+        <v>160</v>
       </c>
       <c r="AW175">
-        <v>87</v>
+        <v>71.5</v>
       </c>
       <c r="AX175">
-        <v>140.02662976125299</v>
+        <v>133.401085022183</v>
       </c>
       <c r="AY175">
-        <v>195.109307170226</v>
+        <v>196.51008584629</v>
       </c>
       <c r="AZ175">
-        <v>243.5</v>
+        <v>252.5</v>
       </c>
       <c r="BC175">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="BD175">
-        <v>134.89801610111601</v>
+        <v>140.76723889722899</v>
       </c>
       <c r="BE175">
-        <v>92.123096989527909</v>
+        <v>67.951735888050393</v>
       </c>
       <c r="BF175">
-        <v>209.72759371766099</v>
+        <v>224.52844582799199</v>
       </c>
       <c r="BG175">
-        <v>173.827497304399</v>
+        <v>171.40906406648099</v>
       </c>
       <c r="BH175">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="BJ175">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="BK175">
-        <v>110.137000631951</v>
+        <v>81.449813687529002</v>
       </c>
       <c r="BL175">
-        <v>174.82467263389501</v>
+        <v>190.02534790879801</v>
       </c>
       <c r="BM175">
-        <v>164.87852893443201</v>
+        <v>154.819030824484</v>
       </c>
       <c r="BN175">
-        <v>209.479241752939</v>
+        <v>212.590669785062</v>
       </c>
       <c r="BO175">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="BQ175">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="BR175">
-        <v>261.37490455787002</v>
+        <v>260.62759970032101</v>
       </c>
       <c r="BS175">
-        <v>267.973940284234</v>
+        <v>295.99109922011598</v>
       </c>
       <c r="BT175">
-        <v>182.77998739498301</v>
+        <v>167.298088192585</v>
       </c>
       <c r="BU175">
-        <v>185.87547413639101</v>
+        <v>188.69995572709601</v>
       </c>
       <c r="BV175">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="BX175">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="BY175">
-        <v>99.749037796965695</v>
+        <v>73.70666197841841</v>
       </c>
       <c r="BZ175">
-        <v>227.36528242957499</v>
+        <v>233.87647907885301</v>
       </c>
       <c r="CA175">
-        <v>137.081804012856</v>
+        <v>131.93535751359499</v>
       </c>
       <c r="CB175">
-        <v>214.279557193893</v>
+        <v>219.22728440119801</v>
       </c>
       <c r="CC175">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:81">
@@ -42017,7 +42096,9 @@
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" s="1"/>
+      <c r="B202" s="1">
+        <v>1</v>
+      </c>
       <c r="C202" t="s">
         <v>80</v>
       </c>
@@ -42030,11 +42111,14 @@
       <c r="F202" t="s">
         <v>289</v>
       </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
       <c r="H202">
         <v>5</v>
       </c>
       <c r="I202">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -42218,7 +42302,9 @@
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" s="1"/>
+      <c r="B203" s="1">
+        <v>1</v>
+      </c>
       <c r="C203" t="s">
         <v>80</v>
       </c>
@@ -42231,11 +42317,14 @@
       <c r="F203" t="s">
         <v>290</v>
       </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
       <c r="H203">
         <v>5</v>
       </c>
       <c r="I203">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J203">
         <v>0</v>
@@ -42419,7 +42508,9 @@
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" s="1"/>
+      <c r="B204" s="1">
+        <v>1</v>
+      </c>
       <c r="C204" t="s">
         <v>80</v>
       </c>
@@ -42432,11 +42523,14 @@
       <c r="F204" t="s">
         <v>291</v>
       </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
       <c r="H204">
         <v>5</v>
       </c>
       <c r="I204">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -42620,7 +42714,9 @@
       <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" s="1"/>
+      <c r="B205" s="1">
+        <v>1</v>
+      </c>
       <c r="C205" t="s">
         <v>80</v>
       </c>
@@ -42633,11 +42729,14 @@
       <c r="F205" t="s">
         <v>292</v>
       </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
       <c r="H205">
         <v>5</v>
       </c>
       <c r="I205">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J205">
         <v>0</v>
@@ -42821,7 +42920,9 @@
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" s="1"/>
+      <c r="B206" s="1">
+        <v>1</v>
+      </c>
       <c r="C206" t="s">
         <v>80</v>
       </c>
@@ -42834,11 +42935,14 @@
       <c r="F206" t="s">
         <v>293</v>
       </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
       <c r="H206">
         <v>5</v>
       </c>
       <c r="I206">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -43037,11 +43141,14 @@
       <c r="F207" t="s">
         <v>294</v>
       </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
       <c r="H207">
         <v>5</v>
       </c>
       <c r="I207">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -43231,7 +43338,9 @@
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" s="1"/>
+      <c r="B208" s="1">
+        <v>1</v>
+      </c>
       <c r="C208" t="s">
         <v>80</v>
       </c>
@@ -43244,11 +43353,14 @@
       <c r="F208" t="s">
         <v>295</v>
       </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
       <c r="H208">
         <v>5</v>
       </c>
       <c r="I208">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -43432,7 +43544,9 @@
       <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" s="1"/>
+      <c r="B209" s="1">
+        <v>1</v>
+      </c>
       <c r="C209" t="s">
         <v>80</v>
       </c>
@@ -43445,11 +43559,14 @@
       <c r="F209" t="s">
         <v>296</v>
       </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
       <c r="H209">
         <v>5</v>
       </c>
       <c r="I209">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -43633,7 +43750,9 @@
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" s="1"/>
+      <c r="B210" s="1">
+        <v>1</v>
+      </c>
       <c r="C210" t="s">
         <v>80</v>
       </c>
@@ -43646,11 +43765,14 @@
       <c r="F210" t="s">
         <v>297</v>
       </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
       <c r="H210">
         <v>5</v>
       </c>
       <c r="I210">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J210">
         <v>0</v>
@@ -43834,7 +43956,9 @@
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" s="1"/>
+      <c r="B211" s="1">
+        <v>1</v>
+      </c>
       <c r="C211" t="s">
         <v>80</v>
       </c>
@@ -43847,14 +43971,17 @@
       <c r="F211" t="s">
         <v>298</v>
       </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
       <c r="H211">
         <v>5</v>
       </c>
       <c r="I211">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J211">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K211">
         <v>4</v>
@@ -43885,13 +44012,159 @@
       </c>
       <c r="T211">
         <v>30</v>
+      </c>
+      <c r="V211">
+        <v>123.91582726446769</v>
+      </c>
+      <c r="W211">
+        <v>153.2295865886822</v>
+      </c>
+      <c r="X211">
+        <v>49.2552215502172</v>
+      </c>
+      <c r="Y211">
+        <v>330</v>
+      </c>
+      <c r="AC211">
+        <v>60.634397279493733</v>
+      </c>
+      <c r="AD211">
+        <v>49.957449465234212</v>
+      </c>
+      <c r="AE211">
+        <v>168.20681754789501</v>
+      </c>
+      <c r="AF211">
+        <v>-29.481709656288199</v>
+      </c>
+      <c r="AG211">
+        <v>9.5817678846210104</v>
+      </c>
+      <c r="AH211">
+        <v>4.6821218550082921</v>
+      </c>
+      <c r="AJ211">
+        <v>5.024937810560445</v>
+      </c>
+      <c r="AK211">
+        <v>18.326407616634199</v>
+      </c>
+      <c r="AL211">
+        <v>138.676324254197</v>
+      </c>
+      <c r="AM211">
+        <v>83.218321767267099</v>
+      </c>
+      <c r="AN211">
+        <v>127.113074011891</v>
+      </c>
+      <c r="AO211">
+        <v>176.9112599924442</v>
+      </c>
+      <c r="AQ211">
+        <v>199.5</v>
+      </c>
+      <c r="AR211">
+        <v>184.40024242577601</v>
+      </c>
+      <c r="AS211">
+        <v>191.78225899492699</v>
+      </c>
+      <c r="AT211">
+        <v>194.5</v>
+      </c>
+      <c r="AW211">
+        <v>69</v>
+      </c>
+      <c r="AX211">
+        <v>123.636622704041</v>
+      </c>
+      <c r="AY211">
+        <v>183.617812913412</v>
+      </c>
+      <c r="AZ211">
+        <v>240</v>
+      </c>
+      <c r="BC211">
+        <v>156</v>
+      </c>
+      <c r="BD211">
+        <v>133.462691420911</v>
+      </c>
+      <c r="BE211">
+        <v>20.163041757245399</v>
+      </c>
+      <c r="BF211">
+        <v>223.59533693096401</v>
+      </c>
+      <c r="BG211">
+        <v>177.06077975600601</v>
+      </c>
+      <c r="BH211">
+        <v>190</v>
+      </c>
+      <c r="BJ211">
+        <v>68</v>
+      </c>
+      <c r="BK211">
+        <v>50.933088255806098</v>
+      </c>
+      <c r="BL211">
+        <v>197.377424081621</v>
+      </c>
+      <c r="BM211">
+        <v>189.75384424868901</v>
+      </c>
+      <c r="BN211">
+        <v>149.41998514425401</v>
+      </c>
+      <c r="BO211">
+        <v>240</v>
+      </c>
+      <c r="BQ211">
+        <v>243</v>
+      </c>
+      <c r="BR211">
+        <v>256.008786319085</v>
+      </c>
+      <c r="BS211">
+        <v>343.19356770928999</v>
+      </c>
+      <c r="BT211">
+        <v>165.204368486466</v>
+      </c>
+      <c r="BU211">
+        <v>203.37956837803699</v>
+      </c>
+      <c r="BV211">
+        <v>199</v>
+      </c>
+      <c r="BX211">
+        <v>70</v>
+      </c>
+      <c r="BY211">
+        <v>59.485262315701398</v>
+      </c>
+      <c r="BZ211">
+        <v>243.11037197471799</v>
+      </c>
+      <c r="CA211">
+        <v>121.691650955041</v>
+      </c>
+      <c r="CB211">
+        <v>191.61984742988099</v>
+      </c>
+      <c r="CC211">
+        <v>240</v>
       </c>
     </row>
     <row r="212" spans="1:81">
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" s="1"/>
+      <c r="B212" s="1">
+        <v>1</v>
+      </c>
       <c r="C212" t="s">
         <v>80</v>
       </c>
@@ -43904,11 +44177,14 @@
       <c r="F212" t="s">
         <v>299</v>
       </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
       <c r="H212">
         <v>5</v>
       </c>
       <c r="I212">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -43944,155 +44220,157 @@
         <v>30</v>
       </c>
       <c r="V212">
-        <v>99.434568049735574</v>
+        <v>100.2906722882493</v>
       </c>
       <c r="W212">
-        <v>128.3970188243693</v>
+        <v>127.3972777317892</v>
       </c>
       <c r="X212">
-        <v>40.844557088252238</v>
+        <v>38.842892134833988</v>
       </c>
       <c r="Y212">
-        <v>537</v>
+        <v>808</v>
       </c>
       <c r="AC212">
-        <v>58.482812375841817</v>
+        <v>43.050693260471107</v>
       </c>
       <c r="AD212">
-        <v>98.964169888007419</v>
+        <v>122.889823035159</v>
       </c>
       <c r="AE212">
-        <v>-65.1999607155593</v>
+        <v>-32.474296448906003</v>
       </c>
       <c r="AF212">
-        <v>24.766264045141501</v>
+        <v>-4.58881694975471</v>
       </c>
       <c r="AG212">
-        <v>2.673574087917491</v>
+        <v>10.5958214737619</v>
       </c>
       <c r="AH212">
-        <v>1.020236978649447</v>
+        <v>1.8090292993791539</v>
       </c>
       <c r="AJ212">
-        <v>21.505813167606568</v>
+        <v>4.5276925690687087</v>
       </c>
       <c r="AK212">
-        <v>98.56295477812229</v>
+        <v>76.942896720884505</v>
       </c>
       <c r="AL212">
-        <v>47.738864014795702</v>
+        <v>75.271681848721201</v>
       </c>
       <c r="AM212">
-        <v>160.00611807233801</v>
+        <v>97.890855870657191</v>
       </c>
       <c r="AN212">
-        <v>189.08065669004401</v>
+        <v>195.894312984766</v>
       </c>
       <c r="AO212">
-        <v>240.16997511787881</v>
+        <v>232.38049026021679</v>
       </c>
       <c r="AQ212">
-        <v>192.5</v>
+        <v>196.5</v>
       </c>
       <c r="AR212">
-        <v>190.78703684452699</v>
+        <v>178.88994061778899</v>
       </c>
       <c r="AS212">
-        <v>202.04123330195301</v>
+        <v>206.873456498888</v>
       </c>
       <c r="AT212">
         <v>196</v>
       </c>
       <c r="AW212">
-        <v>85.5</v>
+        <v>69.5</v>
       </c>
       <c r="AX212">
-        <v>158.651912767282</v>
+        <v>144.94221458027201</v>
       </c>
       <c r="AY212">
-        <v>230.27970404675401</v>
+        <v>220.053821900966</v>
       </c>
       <c r="AZ212">
-        <v>304</v>
+        <v>296.5</v>
       </c>
       <c r="BC212">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="BD212">
-        <v>92.902764548266504</v>
+        <v>61.635541899343103</v>
       </c>
       <c r="BE212">
-        <v>258.298728296756</v>
+        <v>219.372640016612</v>
       </c>
       <c r="BF212">
-        <v>174.03552760491201</v>
+        <v>203.65803101729301</v>
       </c>
       <c r="BG212">
-        <v>195.50700220994401</v>
+        <v>187.33115011976</v>
       </c>
       <c r="BH212">
         <v>195</v>
       </c>
       <c r="BJ212">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="BK212">
-        <v>175.026983393113</v>
+        <v>118.699721644102</v>
       </c>
       <c r="BL212">
-        <v>119.458568858493</v>
+        <v>209.17332511436999</v>
       </c>
       <c r="BM212">
-        <v>183.13610829321999</v>
+        <v>65.6484174297142</v>
       </c>
       <c r="BN212">
-        <v>271.049541548305</v>
+        <v>290.029432304323</v>
       </c>
       <c r="BO212">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="BQ212">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="BR212">
-        <v>286.53254257211</v>
+        <v>310.16610684722701</v>
       </c>
       <c r="BS212">
-        <v>128.80651388698399</v>
+        <v>143.74104299662901</v>
       </c>
       <c r="BT212">
-        <v>229.343981009033</v>
+        <v>210.63476008123601</v>
       </c>
       <c r="BU212">
-        <v>197.08229593290301</v>
+        <v>203.53513727927199</v>
       </c>
       <c r="BV212">
         <v>197</v>
       </c>
       <c r="BX212">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="BY212">
-        <v>167.082343641194</v>
+        <v>148.01576468906401</v>
       </c>
       <c r="BZ212">
-        <v>114.198903536316</v>
+        <v>155.96395273106</v>
       </c>
       <c r="CA212">
-        <v>218.46735284101601</v>
+        <v>141.41482292704899</v>
       </c>
       <c r="CB212">
-        <v>259.06562579520698</v>
+        <v>274.72723325318202</v>
       </c>
       <c r="CC212">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="213" spans="1:81">
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" s="1"/>
+      <c r="B213" s="1">
+        <v>1</v>
+      </c>
       <c r="C213" t="s">
         <v>80</v>
       </c>
@@ -44105,11 +44383,14 @@
       <c r="F213" t="s">
         <v>300</v>
       </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
       <c r="H213">
         <v>5</v>
       </c>
       <c r="I213">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -44293,7 +44574,9 @@
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" s="1"/>
+      <c r="B214" s="1">
+        <v>1</v>
+      </c>
       <c r="C214" t="s">
         <v>80</v>
       </c>
@@ -44306,11 +44589,14 @@
       <c r="F214" t="s">
         <v>301</v>
       </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
       <c r="H214">
         <v>5</v>
       </c>
       <c r="I214">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -44494,7 +44780,9 @@
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" s="1"/>
+      <c r="B215" s="1">
+        <v>1</v>
+      </c>
       <c r="C215" t="s">
         <v>80</v>
       </c>
@@ -44507,6 +44795,9 @@
       <c r="F215" t="s">
         <v>302</v>
       </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
       <c r="H215">
         <v>5</v>
       </c>
@@ -44514,7 +44805,7 @@
         <v>95</v>
       </c>
       <c r="J215">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="K215">
         <v>4</v>
@@ -44545,13 +44836,165 @@
       </c>
       <c r="T215">
         <v>30</v>
+      </c>
+      <c r="V215">
+        <v>191.77809089252801</v>
+      </c>
+      <c r="W215">
+        <v>258.19995464120052</v>
+      </c>
+      <c r="X215">
+        <v>44.51260861505294</v>
+      </c>
+      <c r="Y215">
+        <v>642</v>
+      </c>
+      <c r="Z215">
+        <v>38812</v>
+      </c>
+      <c r="AA215">
+        <v>564</v>
+      </c>
+      <c r="AC215">
+        <v>102.3284806011245</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH215">
+        <v>11.04325907691851</v>
+      </c>
+      <c r="AJ215">
+        <v>5.8523499553598128</v>
+      </c>
+      <c r="AK215" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>350</v>
+      </c>
+      <c r="AM215" t="s">
+        <v>352</v>
+      </c>
+      <c r="AN215" t="s">
+        <v>354</v>
+      </c>
+      <c r="AO215">
+        <v>237.33308487171789</v>
+      </c>
+      <c r="AQ215">
+        <v>176</v>
+      </c>
+      <c r="AR215" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS215" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT215">
+        <v>213</v>
+      </c>
+      <c r="AW215">
+        <v>77.5</v>
+      </c>
+      <c r="AX215" t="s">
+        <v>360</v>
+      </c>
+      <c r="AY215" t="s">
+        <v>362</v>
+      </c>
+      <c r="AZ215">
+        <v>305.5</v>
+      </c>
+      <c r="BC215">
+        <v>112</v>
+      </c>
+      <c r="BD215" t="s">
+        <v>364</v>
+      </c>
+      <c r="BE215" t="s">
+        <v>366</v>
+      </c>
+      <c r="BF215" t="s">
+        <v>368</v>
+      </c>
+      <c r="BG215" t="s">
+        <v>370</v>
+      </c>
+      <c r="BH215">
+        <v>202</v>
+      </c>
+      <c r="BJ215">
+        <v>82</v>
+      </c>
+      <c r="BK215" t="s">
+        <v>372</v>
+      </c>
+      <c r="BL215" t="s">
+        <v>374</v>
+      </c>
+      <c r="BM215" t="s">
+        <v>376</v>
+      </c>
+      <c r="BN215" t="s">
+        <v>378</v>
+      </c>
+      <c r="BO215">
+        <v>307</v>
+      </c>
+      <c r="BQ215">
+        <v>240</v>
+      </c>
+      <c r="BR215" t="s">
+        <v>380</v>
+      </c>
+      <c r="BS215" t="s">
+        <v>382</v>
+      </c>
+      <c r="BT215" t="s">
+        <v>384</v>
+      </c>
+      <c r="BU215" t="s">
+        <v>386</v>
+      </c>
+      <c r="BV215">
+        <v>224</v>
+      </c>
+      <c r="BX215">
+        <v>73</v>
+      </c>
+      <c r="BY215" t="s">
+        <v>388</v>
+      </c>
+      <c r="BZ215" t="s">
+        <v>390</v>
+      </c>
+      <c r="CA215" t="s">
+        <v>392</v>
+      </c>
+      <c r="CB215" t="s">
+        <v>394</v>
+      </c>
+      <c r="CC215">
+        <v>304</v>
       </c>
     </row>
     <row r="216" spans="1:81">
       <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" s="1"/>
+      <c r="B216" s="1">
+        <v>1</v>
+      </c>
       <c r="C216" t="s">
         <v>80</v>
       </c>
@@ -44564,11 +45007,14 @@
       <c r="F216" t="s">
         <v>303</v>
       </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
       <c r="H216">
         <v>5</v>
       </c>
       <c r="I216">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -44752,7 +45198,9 @@
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" s="1"/>
+      <c r="B217" s="1">
+        <v>1</v>
+      </c>
       <c r="C217" t="s">
         <v>80</v>
       </c>
@@ -44765,14 +45213,17 @@
       <c r="F217" t="s">
         <v>304</v>
       </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
       <c r="H217">
         <v>5</v>
       </c>
       <c r="I217">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="K217">
         <v>4</v>
@@ -44953,7 +45404,9 @@
       <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" s="1"/>
+      <c r="B218" s="1">
+        <v>1</v>
+      </c>
       <c r="C218" t="s">
         <v>80</v>
       </c>
@@ -44966,11 +45419,14 @@
       <c r="F218" t="s">
         <v>305</v>
       </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
       <c r="H218">
         <v>5</v>
       </c>
       <c r="I218">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J218">
         <v>0</v>
@@ -45154,7 +45610,9 @@
       <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" s="1"/>
+      <c r="B219" s="1">
+        <v>1</v>
+      </c>
       <c r="C219" t="s">
         <v>80</v>
       </c>
@@ -45167,14 +45625,17 @@
       <c r="F219" t="s">
         <v>306</v>
       </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
       <c r="H219">
         <v>5</v>
       </c>
       <c r="I219">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K219">
         <v>4</v>
@@ -45205,13 +45666,165 @@
       </c>
       <c r="T219">
         <v>30</v>
+      </c>
+      <c r="V219">
+        <v>132.01617466191499</v>
+      </c>
+      <c r="W219">
+        <v>149.8145653364966</v>
+      </c>
+      <c r="X219">
+        <v>44.432101659445102</v>
+      </c>
+      <c r="Y219">
+        <v>725</v>
+      </c>
+      <c r="Z219">
+        <v>16691</v>
+      </c>
+      <c r="AA219">
+        <v>552</v>
+      </c>
+      <c r="AC219">
+        <v>70.471382343190058</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH219">
+        <v>7.8523944891731121</v>
+      </c>
+      <c r="AJ219">
+        <v>4.924428900898052</v>
+      </c>
+      <c r="AK219" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL219" t="s">
+        <v>351</v>
+      </c>
+      <c r="AM219" t="s">
+        <v>353</v>
+      </c>
+      <c r="AN219" t="s">
+        <v>355</v>
+      </c>
+      <c r="AO219">
+        <v>242.32348528833279</v>
+      </c>
+      <c r="AQ219">
+        <v>204</v>
+      </c>
+      <c r="AR219" t="s">
+        <v>357</v>
+      </c>
+      <c r="AS219" t="s">
+        <v>359</v>
+      </c>
+      <c r="AT219">
+        <v>214</v>
+      </c>
+      <c r="AW219">
+        <v>70.5</v>
+      </c>
+      <c r="AX219" t="s">
+        <v>361</v>
+      </c>
+      <c r="AY219" t="s">
+        <v>363</v>
+      </c>
+      <c r="AZ219">
+        <v>303.5</v>
+      </c>
+      <c r="BC219">
+        <v>156</v>
+      </c>
+      <c r="BD219" t="s">
+        <v>365</v>
+      </c>
+      <c r="BE219" t="s">
+        <v>367</v>
+      </c>
+      <c r="BF219" t="s">
+        <v>369</v>
+      </c>
+      <c r="BG219" t="s">
+        <v>371</v>
+      </c>
+      <c r="BH219">
+        <v>208</v>
+      </c>
+      <c r="BJ219">
+        <v>68</v>
+      </c>
+      <c r="BK219" t="s">
+        <v>373</v>
+      </c>
+      <c r="BL219" t="s">
+        <v>375</v>
+      </c>
+      <c r="BM219" t="s">
+        <v>377</v>
+      </c>
+      <c r="BN219" t="s">
+        <v>379</v>
+      </c>
+      <c r="BO219">
+        <v>298</v>
+      </c>
+      <c r="BQ219">
+        <v>252</v>
+      </c>
+      <c r="BR219" t="s">
+        <v>381</v>
+      </c>
+      <c r="BS219" t="s">
+        <v>383</v>
+      </c>
+      <c r="BT219" t="s">
+        <v>385</v>
+      </c>
+      <c r="BU219" t="s">
+        <v>387</v>
+      </c>
+      <c r="BV219">
+        <v>220</v>
+      </c>
+      <c r="BX219">
+        <v>73</v>
+      </c>
+      <c r="BY219" t="s">
+        <v>389</v>
+      </c>
+      <c r="BZ219" t="s">
+        <v>391</v>
+      </c>
+      <c r="CA219" t="s">
+        <v>393</v>
+      </c>
+      <c r="CB219" t="s">
+        <v>395</v>
+      </c>
+      <c r="CC219">
+        <v>309</v>
       </c>
     </row>
     <row r="220" spans="1:81">
       <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" s="1"/>
+      <c r="B220" s="1">
+        <v>1</v>
+      </c>
       <c r="C220" t="s">
         <v>80</v>
       </c>
@@ -45228,7 +45841,7 @@
         <v>5</v>
       </c>
       <c r="I220">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J220">
         <v>0</v>

--- a/自動計測データ.xlsx
+++ b/自動計測データ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="495">
   <si>
     <t>Memo</t>
   </si>
@@ -1380,6 +1380,126 @@
   <si>
     <t>2018/11/26/06:23</t>
   </si>
+  <si>
+    <t>2018/11/26/07:04</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:06</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:08</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:09</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:10</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:11</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:13</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:14</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:15</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:17</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:18</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:19</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:20</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:23</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:25</t>
+  </si>
+  <si>
+    <t>2018/11/26/07:27</t>
+  </si>
+  <si>
+    <t>232.452039094973</t>
+  </si>
+  <si>
+    <t>208.772818741499</t>
+  </si>
+  <si>
+    <t>137.634432930161</t>
+  </si>
+  <si>
+    <t>176.364165298980</t>
+  </si>
+  <si>
+    <t>182.794820013745</t>
+  </si>
+  <si>
+    <t>272.793654283172</t>
+  </si>
+  <si>
+    <t>109.229223308701</t>
+  </si>
+  <si>
+    <t>132.447540652545</t>
+  </si>
+  <si>
+    <t>221.618211309691</t>
+  </si>
+  <si>
+    <t>103.250413366606</t>
+  </si>
+  <si>
+    <t>89.4603707521286</t>
+  </si>
+  <si>
+    <t>184.509189651202</t>
+  </si>
+  <si>
+    <t>209.818891912092</t>
+  </si>
+  <si>
+    <t>167.017624515372</t>
+  </si>
+  <si>
+    <t>292.330401425530</t>
+  </si>
+  <si>
+    <t>221.762759173047</t>
+  </si>
+  <si>
+    <t>292.688907774545</t>
+  </si>
+  <si>
+    <t>201.457766264245</t>
+  </si>
+  <si>
+    <t>220.041447552886</t>
+  </si>
+  <si>
+    <t>130.090468353952</t>
+  </si>
+  <si>
+    <t>62.5285033049246</t>
+  </si>
+  <si>
+    <t>266.356233477778</t>
+  </si>
+  <si>
+    <t>243.721462601526</t>
+  </si>
+  <si>
+    <t>159.389088861304</t>
+  </si>
 </sst>
 </file>
 
@@ -31017,8 +31137,8 @@
       <c r="F124" t="s">
         <v>216</v>
       </c>
-      <c r="G124">
-        <v>1</v>
+      <c r="G124" t="s">
+        <v>455</v>
       </c>
       <c r="H124">
         <v>5</v>
@@ -31063,148 +31183,178 @@
         <v>60</v>
       </c>
       <c r="W124">
-        <v>261.6111333972393</v>
+        <v>302.7072545066349</v>
       </c>
       <c r="X124">
-        <v>41.06307032499904</v>
+        <v>49.05261307204412</v>
       </c>
       <c r="Y124">
-        <v>14.3412483734382</v>
+        <v>14.14813601049981</v>
+      </c>
+      <c r="Z124">
+        <v>0.14</v>
+      </c>
+      <c r="AA124">
+        <v>1</v>
       </c>
       <c r="AB124">
-        <v>454</v>
+        <v>387</v>
+      </c>
+      <c r="AC124">
+        <v>10202</v>
+      </c>
+      <c r="AD124">
+        <v>539</v>
       </c>
       <c r="AF124">
-        <v>18.36659516988493</v>
+        <v>13.5</v>
       </c>
       <c r="AG124">
-        <v>27.5022757760961</v>
+        <v>47.6302357722089</v>
       </c>
       <c r="AH124">
-        <v>6.84401332045048</v>
+        <v>-6.61342914730225</v>
       </c>
       <c r="AI124">
-        <v>18.4651033393059</v>
+        <v>36.6871069027603</v>
       </c>
       <c r="AJ124">
-        <v>9.840487589507189</v>
+        <v>5.178313909948089</v>
       </c>
       <c r="AK124">
-        <v>5.024143724603477</v>
+        <v>14.3531453328372</v>
+      </c>
+      <c r="AL124">
+        <v>5.45005733914791</v>
       </c>
       <c r="AM124">
-        <v>10.03466214899357</v>
+        <v>4.031128874149275</v>
       </c>
       <c r="AN124">
-        <v>59.5581218856</v>
+        <v>43.4282575376925</v>
       </c>
       <c r="AO124">
-        <v>111.719346911863</v>
+        <v>112.57113956001</v>
       </c>
       <c r="AP124">
-        <v>160.355030001939</v>
+        <v>142.682190172396</v>
       </c>
       <c r="AQ124">
-        <v>211.534516947301</v>
+        <v>206.252005122844</v>
       </c>
       <c r="AR124">
-        <v>261.6111333972393</v>
+        <v>251.917970771932</v>
+      </c>
+      <c r="AS124">
+        <v>302.7072545066349</v>
       </c>
       <c r="AT124">
-        <v>221</v>
+        <v>132.5</v>
       </c>
       <c r="AU124">
-        <v>138.526372715282</v>
+        <v>121.163685303666</v>
       </c>
       <c r="AV124">
-        <v>156.675033727361</v>
+        <v>155.341100324734</v>
       </c>
       <c r="AW124">
-        <v>183.5</v>
+        <v>263</v>
       </c>
       <c r="AZ124">
-        <v>77.5</v>
+        <v>71</v>
       </c>
       <c r="BA124">
-        <v>169.924740586251</v>
+        <v>222.729731365022</v>
       </c>
       <c r="BB124">
-        <v>199.3309995115</v>
+        <v>229.635529837358</v>
       </c>
       <c r="BC124">
+        <v>313.5</v>
+      </c>
+      <c r="BF124">
+        <v>116</v>
+      </c>
+      <c r="BG124">
+        <v>86.5459900592773</v>
+      </c>
+      <c r="BH124">
+        <v>137.564175822659</v>
+      </c>
+      <c r="BI124">
+        <v>81.53752701532621</v>
+      </c>
+      <c r="BJ124">
+        <v>184.073477308878</v>
+      </c>
+      <c r="BK124">
+        <v>216.689747250361</v>
+      </c>
+      <c r="BL124">
+        <v>260</v>
+      </c>
+      <c r="BM124">
+        <v>70</v>
+      </c>
+      <c r="BN124">
+        <v>125.204396897905</v>
+      </c>
+      <c r="BO124">
+        <v>155.339091817502</v>
+      </c>
+      <c r="BP124">
+        <v>262.298517932875</v>
+      </c>
+      <c r="BQ124">
+        <v>254.459801656738</v>
+      </c>
+      <c r="BR124">
+        <v>289.360862475287</v>
+      </c>
+      <c r="BS124">
+        <v>318</v>
+      </c>
+      <c r="BT124">
+        <v>149</v>
+      </c>
+      <c r="BU124">
+        <v>177.270426698379</v>
+      </c>
+      <c r="BV124">
+        <v>114.672229251974</v>
+      </c>
+      <c r="BW124">
+        <v>167.261990327349</v>
+      </c>
+      <c r="BX124">
+        <v>191.548352505917</v>
+      </c>
+      <c r="BY124">
+        <v>237.875826550067</v>
+      </c>
+      <c r="BZ124">
+        <v>266</v>
+      </c>
+      <c r="CA124">
+        <v>72</v>
+      </c>
+      <c r="CB124">
+        <v>131.563187055188</v>
+      </c>
+      <c r="CC124">
+        <v>89.5383791034136</v>
+      </c>
+      <c r="CD124">
+        <v>334.929623485957</v>
+      </c>
+      <c r="CE124">
+        <v>184.552433578507</v>
+      </c>
+      <c r="CF124">
+        <v>286.326903086993</v>
+      </c>
+      <c r="CG124">
         <v>309</v>
-      </c>
-      <c r="BF124">
-        <v>206</v>
-      </c>
-      <c r="BG124">
-        <v>166.547941515744</v>
-      </c>
-      <c r="BH124">
-        <v>140.921206614101</v>
-      </c>
-      <c r="BI124">
-        <v>118.685063750116</v>
-      </c>
-      <c r="BJ124">
-        <v>172.688721933086</v>
-      </c>
-      <c r="BK124">
-        <v>179</v>
-      </c>
-      <c r="BM124">
-        <v>69</v>
-      </c>
-      <c r="BN124">
-        <v>102.726226751127</v>
-      </c>
-      <c r="BO124">
-        <v>151.319049211707</v>
-      </c>
-      <c r="BP124">
-        <v>218.328008041729</v>
-      </c>
-      <c r="BQ124">
-        <v>255.911791599317</v>
-      </c>
-      <c r="BR124">
-        <v>310</v>
-      </c>
-      <c r="BT124">
-        <v>236</v>
-      </c>
-      <c r="BU124">
-        <v>225.60470740391</v>
-      </c>
-      <c r="BV124">
-        <v>145.740334541837</v>
-      </c>
-      <c r="BW124">
-        <v>161.731694842619</v>
-      </c>
-      <c r="BX124">
-        <v>193.295905003126</v>
-      </c>
-      <c r="BY124">
-        <v>188</v>
-      </c>
-      <c r="CA124">
-        <v>86</v>
-      </c>
-      <c r="CB124">
-        <v>130.549485228649</v>
-      </c>
-      <c r="CC124">
-        <v>146.697517176598</v>
-      </c>
-      <c r="CD124">
-        <v>224.053134607702</v>
-      </c>
-      <c r="CE124">
-        <v>257.066578304813</v>
-      </c>
-      <c r="CF124">
-        <v>308</v>
       </c>
     </row>
     <row r="125" spans="1:85">
@@ -31223,8 +31373,8 @@
       <c r="F125" t="s">
         <v>217</v>
       </c>
-      <c r="G125">
-        <v>1</v>
+      <c r="G125" t="s">
+        <v>456</v>
       </c>
       <c r="H125">
         <v>7</v>
@@ -31269,148 +31419,178 @@
         <v>60</v>
       </c>
       <c r="W125">
-        <v>251.3309228983004</v>
+        <v>259.8623340539376</v>
       </c>
       <c r="X125">
-        <v>47.78135913806747</v>
+        <v>49.24159543425728</v>
       </c>
       <c r="Y125">
-        <v>16.30490531435971</v>
+        <v>13.3073075228464</v>
+      </c>
+      <c r="Z125">
+        <v>0.13</v>
+      </c>
+      <c r="AA125">
+        <v>1</v>
       </c>
       <c r="AB125">
-        <v>358</v>
+        <v>372</v>
+      </c>
+      <c r="AC125">
+        <v>9473</v>
+      </c>
+      <c r="AD125">
+        <v>487</v>
       </c>
       <c r="AF125">
-        <v>17.28304738236101</v>
+        <v>15.25032786532801</v>
       </c>
       <c r="AG125">
-        <v>39.5435190711782</v>
+        <v>46.97597286263471</v>
       </c>
       <c r="AH125">
-        <v>-0.309439808222354</v>
+        <v>-12.3042096019587</v>
       </c>
       <c r="AI125">
-        <v>31.187390676963</v>
+        <v>53.1542923995491</v>
       </c>
       <c r="AJ125">
-        <v>10.4041449765256</v>
+        <v>-3.00755933395169</v>
       </c>
       <c r="AK125">
-        <v>6.770929579139531</v>
+        <v>19.3216773345305</v>
+      </c>
+      <c r="AL125">
+        <v>6.033471453299313</v>
       </c>
       <c r="AM125">
-        <v>4.743416490252569</v>
+        <v>3.908004605933832</v>
       </c>
       <c r="AN125">
-        <v>51.73870711666471</v>
+        <v>37.3993027541837</v>
       </c>
       <c r="AO125">
-        <v>104.651979499477</v>
+        <v>97.9536118180862</v>
       </c>
       <c r="AP125">
-        <v>151.892539083154</v>
+        <v>120.80211168804</v>
       </c>
       <c r="AQ125">
-        <v>202.243331228193</v>
+        <v>179.533487929291</v>
       </c>
       <c r="AR125">
-        <v>251.3309228983004</v>
+        <v>215.969798159362</v>
+      </c>
+      <c r="AS125">
+        <v>259.8623340539376</v>
       </c>
       <c r="AT125">
-        <v>197.5</v>
+        <v>218</v>
       </c>
       <c r="AU125">
-        <v>216.126217169046</v>
+        <v>225.986494203236</v>
       </c>
       <c r="AV125">
-        <v>201.919988144944</v>
+        <v>201.802164891646</v>
       </c>
       <c r="AW125">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AZ125">
-        <v>69.5</v>
+        <v>70</v>
       </c>
       <c r="BA125">
-        <v>159.036817718032</v>
+        <v>161.60655848756</v>
       </c>
       <c r="BB125">
-        <v>227.736437718986</v>
+        <v>236.871814219128</v>
       </c>
       <c r="BC125">
-        <v>309.5</v>
+        <v>312</v>
       </c>
       <c r="BF125">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="BG125">
-        <v>159.136326536344</v>
+        <v>178.376458620732</v>
       </c>
       <c r="BH125">
-        <v>211.619012007174</v>
+        <v>207.07019110565</v>
       </c>
       <c r="BI125">
-        <v>189.284043702749</v>
+        <v>201.358701507657</v>
       </c>
       <c r="BJ125">
-        <v>162.166651709874</v>
+        <v>180.18851802849</v>
       </c>
       <c r="BK125">
-        <v>160</v>
+        <v>156.956822623321</v>
+      </c>
+      <c r="BL125">
+        <v>148</v>
       </c>
       <c r="BM125">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BN125">
-        <v>115.866978036352</v>
+        <v>106.568072608676</v>
       </c>
       <c r="BO125">
-        <v>164.829887441577</v>
+        <v>146.907910442294</v>
       </c>
       <c r="BP125">
-        <v>217.314710505788</v>
+        <v>206.086363953164</v>
       </c>
       <c r="BQ125">
-        <v>257.752054753269</v>
+        <v>224.858910108103</v>
       </c>
       <c r="BR125">
-        <v>307</v>
+        <v>270.384825353852</v>
+      </c>
+      <c r="BS125">
+        <v>309</v>
       </c>
       <c r="BT125">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="BU125">
-        <v>244.724284638862</v>
+        <v>265.173289225263</v>
       </c>
       <c r="BV125">
-        <v>204.298480365235</v>
+        <v>192.185170979183</v>
       </c>
       <c r="BW125">
-        <v>256.087510660492</v>
+        <v>293.864105803446</v>
       </c>
       <c r="BX125">
-        <v>181.352248833817</v>
+        <v>182.657757462182</v>
       </c>
       <c r="BY125">
-        <v>172</v>
+        <v>189.713176646485</v>
+      </c>
+      <c r="BZ125">
+        <v>158</v>
       </c>
       <c r="CA125">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="CB125">
-        <v>109.101524136467</v>
+        <v>109.907502107747</v>
       </c>
       <c r="CC125">
-        <v>178.41966830733</v>
+        <v>155.965857051053</v>
       </c>
       <c r="CD125">
-        <v>218.218960652549</v>
+        <v>215.540171436687</v>
       </c>
       <c r="CE125">
-        <v>265.038849156558</v>
+        <v>235.522667965432</v>
       </c>
       <c r="CF125">
-        <v>312</v>
+        <v>281.471548281611</v>
+      </c>
+      <c r="CG125">
+        <v>315</v>
       </c>
     </row>
     <row r="126" spans="1:85">
@@ -31429,8 +31609,8 @@
       <c r="F126" t="s">
         <v>218</v>
       </c>
-      <c r="G126">
-        <v>1</v>
+      <c r="G126" t="s">
+        <v>457</v>
       </c>
       <c r="H126">
         <v>7</v>
@@ -31475,148 +31655,178 @@
         <v>60</v>
       </c>
       <c r="W126">
-        <v>254.075269054332</v>
+        <v>272.1596956772232</v>
       </c>
       <c r="X126">
-        <v>44.11652266397488</v>
+        <v>45.19209167081292</v>
       </c>
       <c r="Y126">
-        <v>17.46426336751637</v>
+        <v>15.40842095442012</v>
+      </c>
+      <c r="Z126">
+        <v>0.15</v>
+      </c>
+      <c r="AA126">
+        <v>1</v>
       </c>
       <c r="AB126">
-        <v>353</v>
+        <v>332</v>
+      </c>
+      <c r="AC126">
+        <v>9364</v>
+      </c>
+      <c r="AD126">
+        <v>489</v>
       </c>
       <c r="AF126">
-        <v>11.96043385433791</v>
+        <v>13.26473237573981</v>
       </c>
       <c r="AG126">
-        <v>42.3377665928021</v>
+        <v>42.5369100192245</v>
       </c>
       <c r="AH126">
-        <v>-5.82001669493405</v>
+        <v>-7.84593570483229</v>
       </c>
       <c r="AI126">
-        <v>35.5391180942705</v>
+        <v>47.6308263140195</v>
       </c>
       <c r="AJ126">
-        <v>7.5419586820594</v>
+        <v>1.48892351252678</v>
       </c>
       <c r="AK126">
-        <v>6.159345647749296</v>
+        <v>16.4725744163263</v>
+      </c>
+      <c r="AL126">
+        <v>4.837641757899994</v>
       </c>
       <c r="AM126">
-        <v>3.04138126514911</v>
+        <v>4.382137035739526</v>
       </c>
       <c r="AN126">
-        <v>49.1799346122529</v>
+        <v>36.9608515727268</v>
       </c>
       <c r="AO126">
-        <v>105.552534614208</v>
+        <v>111.49127108354</v>
       </c>
       <c r="AP126">
-        <v>152.195172563895</v>
+        <v>113.259007850888</v>
       </c>
       <c r="AQ126">
-        <v>203.681431894149</v>
+        <v>199.960374870506</v>
       </c>
       <c r="AR126">
-        <v>254.075269054332</v>
+        <v>221.215293779519</v>
+      </c>
+      <c r="AS126">
+        <v>272.1596956772232</v>
       </c>
       <c r="AT126">
-        <v>181.5</v>
+        <v>153</v>
       </c>
       <c r="AU126">
-        <v>166.818563753498</v>
+        <v>153.113117088024</v>
       </c>
       <c r="AV126">
-        <v>160.495373630596</v>
+        <v>162.6933787394</v>
       </c>
       <c r="AW126">
-        <v>221.5</v>
+        <v>244.5</v>
       </c>
       <c r="AZ126">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="BA126">
-        <v>161.200102143625</v>
+        <v>182.359146928258</v>
       </c>
       <c r="BB126">
-        <v>224.853122011141</v>
+        <v>230.195888082723</v>
       </c>
       <c r="BC126">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="BF126">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="BG126">
-        <v>132.722231433191</v>
+        <v>113.277541609971</v>
       </c>
       <c r="BH126">
-        <v>176.860392320107</v>
+        <v>163.486637680213</v>
       </c>
       <c r="BI126">
-        <v>113.306379903821</v>
+        <v>111.327966887687</v>
       </c>
       <c r="BJ126">
-        <v>195.605510056158</v>
+        <v>170.078520706443</v>
       </c>
       <c r="BK126">
-        <v>216</v>
+        <v>208.232956147641</v>
+      </c>
+      <c r="BL126">
+        <v>241</v>
       </c>
       <c r="BM126">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="BN126">
-        <v>105.532079486777</v>
+        <v>110.223087687235</v>
       </c>
       <c r="BO126">
-        <v>171.635236756217</v>
+        <v>178.639008793596</v>
       </c>
       <c r="BP126">
-        <v>226.536863477639</v>
+        <v>191.306807076499</v>
       </c>
       <c r="BQ126">
-        <v>266.325713666127</v>
+        <v>274.876810049309</v>
       </c>
       <c r="BR126">
+        <v>277.459850727362</v>
+      </c>
+      <c r="BS126">
+        <v>314</v>
+      </c>
+      <c r="BT126">
+        <v>168</v>
+      </c>
+      <c r="BU126">
+        <v>193.282989880888</v>
+      </c>
+      <c r="BV126">
+        <v>151.859509578428</v>
+      </c>
+      <c r="BW126">
+        <v>199.800538976493</v>
+      </c>
+      <c r="BX126">
+        <v>175.371042888712</v>
+      </c>
+      <c r="BY126">
+        <v>235.20816886466</v>
+      </c>
+      <c r="BZ126">
+        <v>248</v>
+      </c>
+      <c r="CA126">
+        <v>71</v>
+      </c>
+      <c r="CB126">
+        <v>107.168569902146</v>
+      </c>
+      <c r="CC126">
+        <v>158.804862509764</v>
+      </c>
+      <c r="CD126">
+        <v>193.664284336983</v>
+      </c>
+      <c r="CE126">
+        <v>247.793037712378</v>
+      </c>
+      <c r="CF126">
+        <v>266.45811183312</v>
+      </c>
+      <c r="CG126">
         <v>308</v>
-      </c>
-      <c r="BT126">
-        <v>191</v>
-      </c>
-      <c r="BU126">
-        <v>223.532970880353</v>
-      </c>
-      <c r="BV126">
-        <v>163.472527869239</v>
-      </c>
-      <c r="BW126">
-        <v>183.533755255943</v>
-      </c>
-      <c r="BX126">
-        <v>209.691447273681</v>
-      </c>
-      <c r="BY126">
-        <v>227</v>
-      </c>
-      <c r="CA126">
-        <v>68</v>
-      </c>
-      <c r="CB126">
-        <v>108.959079913465</v>
-      </c>
-      <c r="CC126">
-        <v>162.903358928178</v>
-      </c>
-      <c r="CD126">
-        <v>218.286491032487</v>
-      </c>
-      <c r="CE126">
-        <v>256.912408694168</v>
-      </c>
-      <c r="CF126">
-        <v>304</v>
       </c>
     </row>
     <row r="127" spans="1:85">
@@ -31635,8 +31845,8 @@
       <c r="F127" t="s">
         <v>219</v>
       </c>
-      <c r="G127">
-        <v>1</v>
+      <c r="G127" t="s">
+        <v>458</v>
       </c>
       <c r="H127">
         <v>7</v>
@@ -31681,148 +31891,178 @@
         <v>60</v>
       </c>
       <c r="W127">
-        <v>246.825970931855</v>
+        <v>251.0047553985479</v>
       </c>
       <c r="X127">
-        <v>59.57929092055743</v>
+        <v>57.70224530746037</v>
       </c>
       <c r="Y127">
-        <v>16.79666429254846</v>
+        <v>14.06400515037309</v>
+      </c>
+      <c r="Z127">
+        <v>0.14</v>
+      </c>
+      <c r="AA127">
+        <v>1</v>
       </c>
       <c r="AB127">
-        <v>306</v>
+        <v>292</v>
+      </c>
+      <c r="AC127">
+        <v>11095</v>
+      </c>
+      <c r="AD127">
+        <v>479</v>
       </c>
       <c r="AF127">
-        <v>17.79260519284965</v>
+        <v>16.76497050731409</v>
       </c>
       <c r="AG127">
-        <v>53.7649571962505</v>
+        <v>54.7310193777032</v>
       </c>
       <c r="AH127">
-        <v>-2.58799805196809</v>
+        <v>-9.72488373136459</v>
       </c>
       <c r="AI127">
-        <v>43.3900977225184</v>
+        <v>56.5872477865485</v>
       </c>
       <c r="AJ127">
-        <v>14.4713458084158</v>
+        <v>5.54019605007614</v>
       </c>
       <c r="AK127">
-        <v>10.1668647089511</v>
+        <v>22.1503520417138</v>
+      </c>
+      <c r="AL127">
+        <v>6.718548123582126</v>
       </c>
       <c r="AM127">
-        <v>2.549509756796392</v>
+        <v>4.049391243686435</v>
       </c>
       <c r="AN127">
-        <v>43.4920246431257</v>
+        <v>33.4159904066653</v>
       </c>
       <c r="AO127">
-        <v>104.387080273186</v>
+        <v>97.05149781812651</v>
       </c>
       <c r="AP127">
-        <v>145.855435791386</v>
+        <v>116.172321834412</v>
       </c>
       <c r="AQ127">
-        <v>198.653735674746</v>
+        <v>172.500769140314</v>
       </c>
       <c r="AR127">
-        <v>246.825970931855</v>
+        <v>210.172170745053</v>
+      </c>
+      <c r="AS127">
+        <v>251.0047553985479</v>
       </c>
       <c r="AT127">
-        <v>202.5</v>
+        <v>209</v>
       </c>
       <c r="AU127">
-        <v>210.076278030216</v>
+        <v>214.909898591085</v>
       </c>
       <c r="AV127">
-        <v>206.774238442158</v>
+        <v>209.009741410452</v>
       </c>
       <c r="AW127">
-        <v>162.5</v>
+        <v>161</v>
       </c>
       <c r="AZ127">
-        <v>67.5</v>
+        <v>70</v>
       </c>
       <c r="BA127">
-        <v>148.395192595107</v>
+        <v>150.046445876717</v>
       </c>
       <c r="BB127">
-        <v>232.751132854502</v>
+        <v>238.196215291545</v>
       </c>
       <c r="BC127">
+        <v>307</v>
+      </c>
+      <c r="BF127">
+        <v>191</v>
+      </c>
+      <c r="BG127">
+        <v>152.7426792979</v>
+      </c>
+      <c r="BH127">
+        <v>225.262925464005</v>
+      </c>
+      <c r="BI127">
+        <v>158.798409265216</v>
+      </c>
+      <c r="BJ127">
+        <v>192.530977594275</v>
+      </c>
+      <c r="BK127">
+        <v>163.094494669423</v>
+      </c>
+      <c r="BL127">
+        <v>155</v>
+      </c>
+      <c r="BM127">
+        <v>70</v>
+      </c>
+      <c r="BN127">
+        <v>100.536554549634</v>
+      </c>
+      <c r="BO127">
+        <v>156.298347341883</v>
+      </c>
+      <c r="BP127">
+        <v>178.478294003234</v>
+      </c>
+      <c r="BQ127">
+        <v>232.396189121949</v>
+      </c>
+      <c r="BR127">
+        <v>264.994261518729</v>
+      </c>
+      <c r="BS127">
         <v>304</v>
       </c>
-      <c r="BF127">
-        <v>188</v>
-      </c>
-      <c r="BG127">
-        <v>143.559444328145</v>
-      </c>
-      <c r="BH127">
-        <v>218.89258450439</v>
-      </c>
-      <c r="BI127">
-        <v>161.933292745329</v>
-      </c>
-      <c r="BJ127">
-        <v>172.966626797688</v>
-      </c>
-      <c r="BK127">
-        <v>154</v>
-      </c>
-      <c r="BM127">
-        <v>68</v>
-      </c>
-      <c r="BN127">
-        <v>98.36794087520659</v>
-      </c>
-      <c r="BO127">
-        <v>176.852478123055</v>
-      </c>
-      <c r="BP127">
-        <v>192.854442953012</v>
-      </c>
-      <c r="BQ127">
-        <v>258.152991156771</v>
-      </c>
-      <c r="BR127">
-        <v>299</v>
-      </c>
       <c r="BT127">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="BU127">
-        <v>258.660977121601</v>
+        <v>259.713803653271</v>
       </c>
       <c r="BV127">
-        <v>208.942769719716</v>
+        <v>206.008702438776</v>
       </c>
       <c r="BW127">
-        <v>251.343896750005</v>
+        <v>273.077557289875</v>
       </c>
       <c r="BX127">
-        <v>197.042845616487</v>
+        <v>199.321729008641</v>
       </c>
       <c r="BY127">
-        <v>171</v>
+        <v>204.305516608917</v>
+      </c>
+      <c r="BZ127">
+        <v>167</v>
       </c>
       <c r="CA127">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="CB127">
-        <v>94.52401827632929</v>
+        <v>101.480288155278</v>
       </c>
       <c r="CC127">
-        <v>194.741531605207</v>
+        <v>168.379963816198</v>
       </c>
       <c r="CD127">
-        <v>199.366925558185</v>
+        <v>183.976279336454</v>
       </c>
       <c r="CE127">
-        <v>275.395416501224</v>
+        <v>249.251820784754</v>
       </c>
       <c r="CF127">
-        <v>309</v>
+        <v>279.453709238105</v>
+      </c>
+      <c r="CG127">
+        <v>310</v>
       </c>
     </row>
     <row r="128" spans="1:85">
@@ -31841,8 +32081,8 @@
       <c r="F128" t="s">
         <v>220</v>
       </c>
-      <c r="G128">
-        <v>1</v>
+      <c r="G128" t="s">
+        <v>459</v>
       </c>
       <c r="H128">
         <v>6</v>
@@ -31887,151 +32127,181 @@
         <v>60</v>
       </c>
       <c r="W128">
-        <v>227.9153286715201</v>
+        <v>227.5942353174007</v>
       </c>
       <c r="X128">
-        <v>49.54783802134047</v>
+        <v>47.33085422957429</v>
       </c>
       <c r="Y128">
-        <v>17.42784383409674</v>
+        <v>13.69164476766336</v>
+      </c>
+      <c r="Z128">
+        <v>0.12</v>
+      </c>
+      <c r="AA128">
+        <v>0.93</v>
       </c>
       <c r="AB128">
-        <v>363</v>
+        <v>265</v>
+      </c>
+      <c r="AC128">
+        <v>7374</v>
+      </c>
+      <c r="AD128">
+        <v>463</v>
       </c>
       <c r="AF128">
-        <v>15.29608245970225</v>
+        <v>15.75793450931942</v>
       </c>
       <c r="AG128">
-        <v>44.6988866355227</v>
+        <v>43.1824748666873</v>
       </c>
       <c r="AH128">
-        <v>-1.91480815928832</v>
+        <v>-8.479798037441871</v>
       </c>
       <c r="AI128">
-        <v>29.3742366133851</v>
+        <v>44.4013713910686</v>
       </c>
       <c r="AJ128">
-        <v>5.33224065875408</v>
+        <v>-3.84222256888517</v>
       </c>
       <c r="AK128">
-        <v>3.656934570677478</v>
+        <v>10.720940027609</v>
+      </c>
+      <c r="AL128">
+        <v>2.288255036291001</v>
       </c>
       <c r="AM128">
-        <v>2.666666666666671</v>
+        <v>4.506939094329987</v>
       </c>
       <c r="AN128">
-        <v>45.81829847316789</v>
+        <v>36.6936194351812</v>
       </c>
       <c r="AO128">
-        <v>102.64133472026</v>
+        <v>92.17508102749809</v>
       </c>
       <c r="AP128">
-        <v>145.85765631734</v>
+        <v>117.164638333699</v>
       </c>
       <c r="AQ128">
-        <v>196.559818738441</v>
+        <v>165.727307616153</v>
       </c>
       <c r="AR128">
-        <v>244.9286511254003</v>
+        <v>204.173181242235</v>
+      </c>
+      <c r="AS128">
+        <v>244.4388039756652</v>
       </c>
       <c r="AT128">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="AU128">
-        <v>199.611165961383</v>
+        <v>211.019083078077</v>
       </c>
       <c r="AV128">
-        <v>206.783546088298</v>
+        <v>207.784401012731</v>
       </c>
       <c r="AW128">
-        <v>170</v>
+        <v>163.5</v>
       </c>
       <c r="AZ128">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="BA128">
-        <v>149.089499922655</v>
+        <v>152.145049691797</v>
       </c>
       <c r="BB128">
-        <v>230.748742142684</v>
+        <v>230.844167336848</v>
       </c>
       <c r="BC128">
-        <v>306</v>
+        <v>301.5</v>
       </c>
       <c r="BF128">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="BG128">
-        <v>146.673091874746</v>
+        <v>171.719751397235</v>
       </c>
       <c r="BH128">
-        <v>204.39332831059</v>
+        <v>207.451281987661</v>
       </c>
       <c r="BI128">
-        <v>177.845934646415</v>
+        <v>179.574381051447</v>
       </c>
       <c r="BJ128">
-        <v>182.488143267348</v>
+        <v>195.506163325322</v>
       </c>
       <c r="BK128">
-        <v>167</v>
+        <v>175.048732565359</v>
+      </c>
+      <c r="BL128">
+        <v>161</v>
       </c>
       <c r="BM128">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BN128">
-        <v>102.319211297036</v>
+        <v>104.63266079882</v>
       </c>
       <c r="BO128">
-        <v>174.649716605454</v>
+        <v>150.308508539386</v>
       </c>
       <c r="BP128">
-        <v>197.422074929702</v>
+        <v>188.80624774698</v>
       </c>
       <c r="BQ128">
-        <v>262.41273661748</v>
+        <v>223.348286336092</v>
       </c>
       <c r="BR128">
-        <v>304</v>
+        <v>266.705730282832</v>
+      </c>
+      <c r="BS128">
+        <v>301</v>
       </c>
       <c r="BT128">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="BU128">
-        <v>241.147661738337</v>
+        <v>248.073073703296</v>
       </c>
       <c r="BV128">
-        <v>198.808242104011</v>
+        <v>203.632755913604</v>
       </c>
       <c r="BW128">
-        <v>237.977774345074</v>
+        <v>254.245064689163</v>
       </c>
       <c r="BX128">
-        <v>190.979803721868</v>
+        <v>195.612541493656</v>
       </c>
       <c r="BY128">
-        <v>173</v>
+        <v>193.068782340387</v>
+      </c>
+      <c r="BZ128">
+        <v>166</v>
       </c>
       <c r="CA128">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="CB128">
-        <v>100.343434685553</v>
+        <v>111.781188354461</v>
       </c>
       <c r="CC128">
-        <v>186.05219867425</v>
+        <v>146.026896162468</v>
       </c>
       <c r="CD128">
-        <v>200.417975292663</v>
+        <v>203.092989739197</v>
       </c>
       <c r="CE128">
-        <v>268.746702205204</v>
+        <v>226.753774465609</v>
       </c>
       <c r="CF128">
-        <v>308</v>
+        <v>270.412860415108</v>
+      </c>
+      <c r="CG128">
+        <v>302</v>
       </c>
     </row>
-    <row r="129" spans="1:84">
+    <row r="129" spans="1:85">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -32047,8 +32317,8 @@
       <c r="F129" t="s">
         <v>221</v>
       </c>
-      <c r="G129">
-        <v>1</v>
+      <c r="G129" t="s">
+        <v>460</v>
       </c>
       <c r="H129">
         <v>7</v>
@@ -32093,151 +32363,181 @@
         <v>60</v>
       </c>
       <c r="W129">
-        <v>247.532709208934</v>
+        <v>255.3431863192753</v>
       </c>
       <c r="X129">
-        <v>60.72302206533002</v>
+        <v>60.24309085959196</v>
       </c>
       <c r="Y129">
-        <v>14.93301162022375</v>
+        <v>13.99757791074009</v>
+      </c>
+      <c r="Z129">
+        <v>0.14</v>
+      </c>
+      <c r="AA129">
+        <v>1</v>
       </c>
       <c r="AB129">
-        <v>335</v>
+        <v>249</v>
+      </c>
+      <c r="AC129">
+        <v>10244</v>
+      </c>
+      <c r="AD129">
+        <v>487</v>
       </c>
       <c r="AF129">
-        <v>18.7136042372858</v>
+        <v>17.56065876073876</v>
       </c>
       <c r="AG129">
-        <v>56.6615851851526</v>
+        <v>55.5923292883538</v>
       </c>
       <c r="AH129">
-        <v>-7.43853232035707</v>
+        <v>-1.92080886427508</v>
       </c>
       <c r="AI129">
-        <v>36.05442863438579</v>
+        <v>37.6144887193167</v>
       </c>
       <c r="AJ129">
-        <v>10.7217622798558</v>
+        <v>9.648648362730722</v>
       </c>
       <c r="AK129">
-        <v>6.826854755310377</v>
+        <v>14.5059014447981</v>
+      </c>
+      <c r="AL129">
+        <v>5.926634795564849</v>
       </c>
       <c r="AM129">
-        <v>2.549509756796392</v>
+        <v>4.375000000000014</v>
       </c>
       <c r="AN129">
-        <v>44.53566098037721</v>
+        <v>32.5342038070472</v>
       </c>
       <c r="AO129">
-        <v>104.391523934108</v>
+        <v>101.583902618983</v>
       </c>
       <c r="AP129">
-        <v>144.505407209642</v>
+        <v>113.472555175237</v>
       </c>
       <c r="AQ129">
-        <v>199.780891698146</v>
+        <v>177.707510918494</v>
       </c>
       <c r="AR129">
-        <v>247.532709208934</v>
+        <v>211.500149810657</v>
+      </c>
+      <c r="AS129">
+        <v>255.3431863192753</v>
       </c>
       <c r="AT129">
-        <v>182.5</v>
+        <v>183.5</v>
       </c>
       <c r="AU129">
-        <v>176.960305992828</v>
+        <v>174.119457585644</v>
       </c>
       <c r="AV129">
-        <v>175.916404872241</v>
+        <v>178.78067921242</v>
       </c>
       <c r="AW129">
-        <v>222.5</v>
+        <v>226</v>
       </c>
       <c r="AZ129">
-        <v>67.5</v>
+        <v>70</v>
       </c>
       <c r="BA129">
-        <v>146.941113109352</v>
+        <v>152.787800239516</v>
       </c>
       <c r="BB129">
-        <v>235.550878485677</v>
+        <v>240.624027402224</v>
       </c>
       <c r="BC129">
-        <v>304.5</v>
+        <v>311.5</v>
       </c>
       <c r="BF129">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BG129">
-        <v>124.308221692043</v>
+        <v>126.496339178731</v>
       </c>
       <c r="BH129">
-        <v>175.426430230287</v>
+        <v>185.254701902704</v>
       </c>
       <c r="BI129">
-        <v>151.428109294731</v>
+        <v>121.01332652283</v>
       </c>
       <c r="BJ129">
-        <v>183.395936947093</v>
+        <v>198.553283102776</v>
       </c>
       <c r="BK129">
-        <v>216</v>
+        <v>181.638065081167</v>
+      </c>
+      <c r="BL129">
+        <v>221</v>
       </c>
       <c r="BM129">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BN129">
-        <v>98.93833842992191</v>
+        <v>94.907305925476</v>
       </c>
       <c r="BO129">
-        <v>188.633762608874</v>
+        <v>184.597971889989</v>
       </c>
       <c r="BP129">
-        <v>196.005749655177</v>
+        <v>164.795058201476</v>
       </c>
       <c r="BQ129">
-        <v>277.250201779419</v>
+        <v>257.119762461955</v>
       </c>
       <c r="BR129">
-        <v>307</v>
+        <v>279.636495378563</v>
+      </c>
+      <c r="BS129">
+        <v>314</v>
       </c>
       <c r="BT129">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="BU129">
-        <v>246.818593504412</v>
+        <v>232.884034675137</v>
       </c>
       <c r="BV129">
-        <v>153.450825658605</v>
+        <v>181.255517423789</v>
       </c>
       <c r="BW129">
-        <v>229.26680790677</v>
+        <v>198.243462108847</v>
       </c>
       <c r="BX129">
-        <v>198.983947357828</v>
+        <v>215.232081408968</v>
       </c>
       <c r="BY129">
-        <v>229</v>
+        <v>207.944224583611</v>
+      </c>
+      <c r="BZ129">
+        <v>231</v>
       </c>
       <c r="CA129">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="CB129">
-        <v>99.4617769319124</v>
+        <v>101.298499543428</v>
       </c>
       <c r="CC129">
-        <v>178.405517538698</v>
+        <v>167.187471027314</v>
       </c>
       <c r="CD129">
-        <v>191.770897995265</v>
+        <v>172.717570826916</v>
       </c>
       <c r="CE129">
-        <v>264.863251342558</v>
+        <v>241.918272731851</v>
       </c>
       <c r="CF129">
-        <v>302</v>
+        <v>269.314244837553</v>
+      </c>
+      <c r="CG129">
+        <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:84">
+    <row r="130" spans="1:85">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -32253,8 +32553,8 @@
       <c r="F130" t="s">
         <v>222</v>
       </c>
-      <c r="G130">
-        <v>1</v>
+      <c r="G130" t="s">
+        <v>461</v>
       </c>
       <c r="H130">
         <v>12</v>
@@ -32299,151 +32599,181 @@
         <v>60</v>
       </c>
       <c r="W130">
-        <v>271.7485814929408</v>
+        <v>276.3456159427836</v>
       </c>
       <c r="X130">
-        <v>51.88984486826175</v>
+        <v>52.91164213366255</v>
       </c>
       <c r="Y130">
-        <v>18.56108458057136</v>
+        <v>15.09050902434956</v>
+      </c>
+      <c r="Z130">
+        <v>0.14</v>
+      </c>
+      <c r="AA130">
+        <v>0.99</v>
       </c>
       <c r="AB130">
-        <v>399</v>
+        <v>396</v>
+      </c>
+      <c r="AC130">
+        <v>10493</v>
+      </c>
+      <c r="AD130">
+        <v>505</v>
       </c>
       <c r="AF130">
-        <v>21.74084618297912</v>
+        <v>16.41502741392776</v>
       </c>
       <c r="AG130">
-        <v>35.5037061320448</v>
+        <v>48.74257938769379</v>
       </c>
       <c r="AH130">
-        <v>13.0071653559655</v>
+        <v>-7.01183707151537</v>
       </c>
       <c r="AI130">
-        <v>23.4447669869328</v>
+        <v>47.59714915489329</v>
       </c>
       <c r="AJ130">
-        <v>13.5120038943745</v>
+        <v>3.59070370180542</v>
       </c>
       <c r="AK130">
-        <v>6.09025647964677</v>
+        <v>16.684280343016</v>
+      </c>
+      <c r="AL130">
+        <v>4.7762432936357</v>
       </c>
       <c r="AM130">
-        <v>11.80042372120595</v>
+        <v>6.130099917619614</v>
       </c>
       <c r="AN130">
-        <v>62.6815751478896</v>
+        <v>41.4982290084039</v>
       </c>
       <c r="AO130">
-        <v>116.208058135646</v>
+        <v>107.995484849448</v>
       </c>
       <c r="AP130">
-        <v>168.653072768476</v>
+        <v>130.767695789775</v>
       </c>
       <c r="AQ130">
-        <v>219.791714163436</v>
+        <v>193.454113598497</v>
       </c>
       <c r="AR130">
-        <v>271.7485814929408</v>
+        <v>232.07732947466</v>
+      </c>
+      <c r="AS130">
+        <v>279.1584313172942</v>
       </c>
       <c r="AT130">
-        <v>150</v>
+        <v>186.5</v>
       </c>
       <c r="AU130">
-        <v>216.134616467722</v>
+        <v>225.842264513113</v>
       </c>
       <c r="AV130">
-        <v>268.029338199424</v>
+        <v>255.631052710884</v>
       </c>
       <c r="AW130">
-        <v>202.5</v>
+        <v>151</v>
       </c>
       <c r="AZ130">
-        <v>78.5</v>
+        <v>72.5</v>
       </c>
       <c r="BA130">
-        <v>162.806937719613</v>
+        <v>178.535029105286</v>
       </c>
       <c r="BB130">
-        <v>199.249858339347</v>
+        <v>235.0338056682</v>
       </c>
       <c r="BC130">
-        <v>306.5</v>
+        <v>313.5</v>
       </c>
       <c r="BF130">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="BG130">
-        <v>148.12243334175</v>
+        <v>146.296532826146</v>
       </c>
       <c r="BH130">
-        <v>181.556859917017</v>
+        <v>240.568729886575</v>
       </c>
       <c r="BI130">
-        <v>270.768780803034</v>
+        <v>158.370517643166</v>
       </c>
       <c r="BJ130">
-        <v>198.059637246911</v>
+        <v>270.040325637567</v>
       </c>
       <c r="BK130">
-        <v>198</v>
+        <v>150.564669684037</v>
+      </c>
+      <c r="BL130">
+        <v>148</v>
       </c>
       <c r="BM130">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="BN130">
-        <v>141.235096866033</v>
+        <v>127.050107831917</v>
       </c>
       <c r="BO130">
-        <v>138.456937259312</v>
+        <v>117.883871107941</v>
       </c>
       <c r="BP130">
-        <v>223.354326945975</v>
+        <v>253.453056028619</v>
       </c>
       <c r="BQ130">
-        <v>252.278367482074</v>
+        <v>214.343915688276</v>
       </c>
       <c r="BR130">
-        <v>304</v>
+        <v>283.658682720473</v>
+      </c>
+      <c r="BS130">
+        <v>310</v>
       </c>
       <c r="BT130">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="BU130">
-        <v>214.791376594855</v>
+        <v>247.209536290102</v>
       </c>
       <c r="BV130">
-        <v>225.492381237141</v>
+        <v>218.655937612144</v>
       </c>
       <c r="BW130">
-        <v>303.92335234778</v>
+        <v>276.389269301355</v>
       </c>
       <c r="BX130">
-        <v>231.14701737368</v>
+        <v>251.063389490728</v>
       </c>
       <c r="BY130">
-        <v>207</v>
+        <v>189.385697200497</v>
+      </c>
+      <c r="BZ130">
+        <v>154</v>
       </c>
       <c r="CA130">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="CB130">
-        <v>106.580305010298</v>
+        <v>96.12448390698481</v>
       </c>
       <c r="CC130">
-        <v>138.076585354744</v>
+        <v>174.885939841512</v>
       </c>
       <c r="CD130">
-        <v>223.504657931807</v>
+        <v>174.757933198909</v>
       </c>
       <c r="CE130">
-        <v>260.622659945757</v>
+        <v>295.129295972572</v>
       </c>
       <c r="CF130">
-        <v>309</v>
+        <v>279.92972363417</v>
+      </c>
+      <c r="CG130">
+        <v>317</v>
       </c>
     </row>
-    <row r="131" spans="1:84">
+    <row r="131" spans="1:85">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -32459,8 +32789,8 @@
       <c r="F131" t="s">
         <v>223</v>
       </c>
-      <c r="G131">
-        <v>1</v>
+      <c r="G131" t="s">
+        <v>462</v>
       </c>
       <c r="H131">
         <v>10</v>
@@ -32505,151 +32835,181 @@
         <v>60</v>
       </c>
       <c r="W131">
-        <v>265.791730503149</v>
+        <v>268.7209046518281</v>
       </c>
       <c r="X131">
-        <v>50.061240451286</v>
+        <v>51.4272411084452</v>
       </c>
       <c r="Y131">
-        <v>16.72495368983459</v>
+        <v>15.20372720296484</v>
+      </c>
+      <c r="Z131">
+        <v>0.14</v>
+      </c>
+      <c r="AA131">
+        <v>1</v>
       </c>
       <c r="AB131">
-        <v>324</v>
+        <v>346</v>
+      </c>
+      <c r="AC131">
+        <v>10271</v>
+      </c>
+      <c r="AD131">
+        <v>494</v>
       </c>
       <c r="AF131">
-        <v>22.32191636180305</v>
+        <v>17.42440816785465</v>
       </c>
       <c r="AG131">
-        <v>32.4749514738645</v>
+        <v>43.4170423092837</v>
       </c>
       <c r="AH131">
-        <v>12.0751513155141</v>
+        <v>0.153586636308725</v>
       </c>
       <c r="AI131">
-        <v>27.3566039428183</v>
+        <v>41.3553839723326</v>
       </c>
       <c r="AJ131">
-        <v>10.2835604513943</v>
+        <v>8.278353522664519</v>
       </c>
       <c r="AK131">
-        <v>7.446260623303233</v>
+        <v>14.5329294278579</v>
+      </c>
+      <c r="AL131">
+        <v>7.661229956374143</v>
       </c>
       <c r="AM131">
-        <v>11.53376685119731</v>
+        <v>6.13269924258478</v>
       </c>
       <c r="AN131">
-        <v>60.8838179128479</v>
+        <v>41.22478507722811</v>
       </c>
       <c r="AO131">
-        <v>117.544965706494</v>
+        <v>105.153963782807</v>
       </c>
       <c r="AP131">
-        <v>160.727115800167</v>
+        <v>123.317379289903</v>
       </c>
       <c r="AQ131">
-        <v>216.439309715829</v>
+        <v>188.859139992993</v>
       </c>
       <c r="AR131">
-        <v>265.791730503149</v>
+        <v>222.485130661681</v>
+      </c>
+      <c r="AS131">
+        <v>268.7209046518281</v>
       </c>
       <c r="AT131">
-        <v>151</v>
+        <v>178.5</v>
       </c>
       <c r="AU131">
-        <v>200.505242839656</v>
+        <v>208.875777881255</v>
       </c>
       <c r="AV131">
-        <v>273.643402373874</v>
+        <v>256.605203092961</v>
       </c>
       <c r="AW131">
-        <v>209.5</v>
+        <v>167.5</v>
       </c>
       <c r="AZ131">
-        <v>78.5</v>
+        <v>71.5</v>
       </c>
       <c r="BA131">
-        <v>139.918960257572</v>
+        <v>145.513183568175</v>
       </c>
       <c r="BB131">
-        <v>224.52690999565</v>
+        <v>255.403859360679</v>
       </c>
       <c r="BC131">
-        <v>302.5</v>
+        <v>310</v>
       </c>
       <c r="BF131">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="BG131">
-        <v>146.012765636395</v>
+        <v>148.721373947632</v>
       </c>
       <c r="BH131">
-        <v>205.776862813736</v>
+        <v>211.335798385365</v>
       </c>
       <c r="BI131">
-        <v>219.005485197865</v>
+        <v>178.456364859347</v>
       </c>
       <c r="BJ131">
-        <v>234.965945805001</v>
+        <v>237.684834934934</v>
       </c>
       <c r="BK131">
-        <v>203</v>
+        <v>186.003931635126</v>
+      </c>
+      <c r="BL131">
+        <v>162</v>
       </c>
       <c r="BM131">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="BN131">
-        <v>134.8895133487</v>
+        <v>116.387567075065</v>
       </c>
       <c r="BO131">
-        <v>157.394589646843</v>
+        <v>148.616528794814</v>
       </c>
       <c r="BP131">
-        <v>200.483784227269</v>
+        <v>206.34375395481</v>
       </c>
       <c r="BQ131">
-        <v>258.633799667373</v>
+        <v>217.510499756843</v>
       </c>
       <c r="BR131">
-        <v>299</v>
+        <v>290.436423032408</v>
+      </c>
+      <c r="BS131">
+        <v>305</v>
       </c>
       <c r="BT131">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="BU131">
-        <v>208.379534677661</v>
+        <v>236.943162731499</v>
       </c>
       <c r="BV131">
-        <v>235.965477318145</v>
+        <v>205.011857475473</v>
       </c>
       <c r="BW131">
-        <v>275.885172124716</v>
+        <v>283.004534627535</v>
       </c>
       <c r="BX131">
-        <v>252.319473212109</v>
+        <v>231.647951820026</v>
       </c>
       <c r="BY131">
-        <v>216</v>
+        <v>220.567884937286</v>
+      </c>
+      <c r="BZ131">
+        <v>173</v>
       </c>
       <c r="CA131">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="CB131">
-        <v>103.72203545521</v>
+        <v>92.66816096761571</v>
       </c>
       <c r="CC131">
-        <v>155.508270324884</v>
+        <v>169.670752611798</v>
       </c>
       <c r="CD131">
-        <v>196.734491307944</v>
+        <v>173.981823612773</v>
       </c>
       <c r="CE131">
-        <v>271.200038364832</v>
+        <v>263.602959092566</v>
       </c>
       <c r="CF131">
-        <v>306</v>
+        <v>291.813942537734</v>
+      </c>
+      <c r="CG131">
+        <v>315</v>
       </c>
     </row>
-    <row r="132" spans="1:84">
+    <row r="132" spans="1:85">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -32665,8 +33025,8 @@
       <c r="F132" t="s">
         <v>224</v>
       </c>
-      <c r="G132">
-        <v>1</v>
+      <c r="G132" t="s">
+        <v>463</v>
       </c>
       <c r="H132">
         <v>8</v>
@@ -32711,151 +33071,181 @@
         <v>60</v>
       </c>
       <c r="W132">
-        <v>233.7450530169271</v>
+        <v>213.1422801511571</v>
       </c>
       <c r="X132">
-        <v>65.91597527648385</v>
+        <v>60.43389295168126</v>
       </c>
       <c r="Y132">
-        <v>15.12975382541505</v>
+        <v>15.56703005766847</v>
+      </c>
+      <c r="Z132">
+        <v>0.14</v>
+      </c>
+      <c r="AA132">
+        <v>0.89</v>
       </c>
       <c r="AB132">
-        <v>313</v>
+        <v>273</v>
+      </c>
+      <c r="AC132">
+        <v>9260</v>
+      </c>
+      <c r="AD132">
+        <v>466</v>
       </c>
       <c r="AF132">
-        <v>21.5271057684862</v>
+        <v>18.0077222664192</v>
       </c>
       <c r="AG132">
-        <v>60.5657259875062</v>
+        <v>55.57851451123779</v>
       </c>
       <c r="AH132">
-        <v>-10.6159825455979</v>
+        <v>-1.49511447738408</v>
       </c>
       <c r="AI132">
-        <v>46.8214857811186</v>
+        <v>31.9937195523787</v>
       </c>
       <c r="AJ132">
-        <v>7.90406142627725</v>
+        <v>21.493604379618</v>
       </c>
       <c r="AK132">
-        <v>5.102225416388633</v>
+        <v>4.69052676618344</v>
+      </c>
+      <c r="AL132">
+        <v>2.945099507845386</v>
       </c>
       <c r="AM132">
-        <v>3.535533905932738</v>
+        <v>3.805838991712475</v>
       </c>
       <c r="AN132">
-        <v>46.1831461757763</v>
+        <v>29.9079824201544</v>
       </c>
       <c r="AO132">
-        <v>101.719307846991</v>
+        <v>95.7322220399914</v>
       </c>
       <c r="AP132">
-        <v>147.729474319554</v>
+        <v>104.356297166275</v>
       </c>
       <c r="AQ132">
-        <v>197.149630705596</v>
+        <v>170.575454926497</v>
       </c>
       <c r="AR132">
-        <v>245.9579048571644</v>
+        <v>196.734904655787</v>
+      </c>
+      <c r="AS132">
+        <v>239.6144509013021</v>
       </c>
       <c r="AT132">
-        <v>193.5</v>
+        <v>193</v>
       </c>
       <c r="AU132">
-        <v>186.254350234914</v>
+        <v>182.123958806886</v>
       </c>
       <c r="AV132">
-        <v>167.585686755533</v>
+        <v>172.868251647029</v>
       </c>
       <c r="AW132">
-        <v>207.5</v>
+        <v>214</v>
       </c>
       <c r="AZ132">
-        <v>67.5</v>
+        <v>69</v>
       </c>
       <c r="BA132">
-        <v>146.83799105515</v>
+        <v>146.444590423571</v>
       </c>
       <c r="BB132">
-        <v>230.879305117438</v>
+        <v>228.33483710325</v>
       </c>
       <c r="BC132">
-        <v>305.5</v>
+        <v>299.5</v>
       </c>
       <c r="BF132">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BG132">
-        <v>133.959163735632</v>
+        <v>139.637595110962</v>
       </c>
       <c r="BH132">
-        <v>179.02441189046</v>
+        <v>182.767372797704</v>
       </c>
       <c r="BI132">
-        <v>136.925993304013</v>
+        <v>135.337871836563</v>
       </c>
       <c r="BJ132">
-        <v>176.923768420661</v>
+        <v>175.315940659916</v>
       </c>
       <c r="BK132">
-        <v>202</v>
+        <v>185.441167382657</v>
+      </c>
+      <c r="BL132">
+        <v>211</v>
       </c>
       <c r="BM132">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BN132">
-        <v>99.4804572192722</v>
+        <v>91.83081884917441</v>
       </c>
       <c r="BO132">
-        <v>178.115241484421</v>
+        <v>170.992735134748</v>
       </c>
       <c r="BP132">
-        <v>202.690770383879</v>
+        <v>158.748798973774</v>
       </c>
       <c r="BQ132">
-        <v>268.656546913589</v>
+        <v>249.355980143786</v>
       </c>
       <c r="BR132">
-        <v>306</v>
+        <v>260.60905633109</v>
+      </c>
+      <c r="BS132">
+        <v>300</v>
       </c>
       <c r="BT132">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BU132">
-        <v>264.32808779003</v>
+        <v>245.179375491509</v>
       </c>
       <c r="BV132">
-        <v>151.517793674682</v>
+        <v>180.800722040298</v>
       </c>
       <c r="BW132">
-        <v>235.992733870503</v>
+        <v>204.235327374175</v>
       </c>
       <c r="BX132">
-        <v>187.994659543423</v>
+        <v>210.87855963677</v>
       </c>
       <c r="BY132">
-        <v>213</v>
+        <v>196.52779185068</v>
+      </c>
+      <c r="BZ132">
+        <v>217</v>
       </c>
       <c r="CA132">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="CB132">
-        <v>107.047387523404</v>
+        <v>99.4097438071115</v>
       </c>
       <c r="CC132">
-        <v>170.561419911263</v>
+        <v>162.215758819386</v>
       </c>
       <c r="CD132">
-        <v>197.306307301197</v>
+        <v>167.392570957057</v>
       </c>
       <c r="CE132">
-        <v>264.602781319583</v>
+        <v>232.411711315146</v>
       </c>
       <c r="CF132">
-        <v>305</v>
+        <v>260.928198906675</v>
+      </c>
+      <c r="CG132">
+        <v>299</v>
       </c>
     </row>
-    <row r="133" spans="1:84">
+    <row r="133" spans="1:85">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -32871,8 +33261,8 @@
       <c r="F133" t="s">
         <v>225</v>
       </c>
-      <c r="G133">
-        <v>1</v>
+      <c r="G133" t="s">
+        <v>463</v>
       </c>
       <c r="H133">
         <v>8</v>
@@ -32917,151 +33307,181 @@
         <v>60</v>
       </c>
       <c r="W133">
-        <v>249.6631452299472</v>
+        <v>251.1907380971173</v>
       </c>
       <c r="X133">
-        <v>53.27337576549925</v>
+        <v>48.92378982144348</v>
       </c>
       <c r="Y133">
-        <v>16.77682544786164</v>
+        <v>14.52286292372454</v>
+      </c>
+      <c r="Z133">
+        <v>0.14</v>
+      </c>
+      <c r="AA133">
+        <v>0.98</v>
       </c>
       <c r="AB133">
-        <v>364</v>
+        <v>298</v>
+      </c>
+      <c r="AC133">
+        <v>8950</v>
+      </c>
+      <c r="AD133">
+        <v>483</v>
       </c>
       <c r="AF133">
-        <v>11.74791745312609</v>
+        <v>13.76823286086893</v>
       </c>
       <c r="AG133">
-        <v>55.2127183447107</v>
+        <v>46.6092130247246</v>
       </c>
       <c r="AH133">
-        <v>-9.708682061570439</v>
+        <v>-5.65666445556258</v>
       </c>
       <c r="AI133">
-        <v>38.0505256540382</v>
+        <v>38.6291526982172</v>
       </c>
       <c r="AJ133">
-        <v>12.8581993114538</v>
+        <v>7.12097880320912</v>
       </c>
       <c r="AK133">
-        <v>8.487050354860827</v>
+        <v>16.5568617764749</v>
+      </c>
+      <c r="AL133">
+        <v>3.778594682918208</v>
       </c>
       <c r="AM133">
-        <v>1</v>
+        <v>4.049391243686435</v>
       </c>
       <c r="AN133">
-        <v>38.1965061982203</v>
+        <v>35.28317139934379</v>
       </c>
       <c r="AO133">
-        <v>109.366861498422</v>
+        <v>99.70539968409571</v>
       </c>
       <c r="AP133">
-        <v>140.675511917133</v>
+        <v>115.781166949085</v>
       </c>
       <c r="AQ133">
-        <v>202.359688861857</v>
+        <v>178.831212603011</v>
       </c>
       <c r="AR133">
-        <v>249.6631452299472</v>
+        <v>212.927451313456</v>
+      </c>
+      <c r="AS133">
+        <v>256.3515152118749</v>
       </c>
       <c r="AT133">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AU133">
-        <v>199.54071367164</v>
+        <v>206.071075331438</v>
       </c>
       <c r="AV133">
-        <v>236.666679493126</v>
+        <v>233.547122878066</v>
       </c>
       <c r="AW133">
-        <v>166.5</v>
+        <v>156</v>
       </c>
       <c r="AZ133">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BA133">
-        <v>144.718419939113</v>
+        <v>149.966230164803</v>
       </c>
       <c r="BB133">
-        <v>242.969708916767</v>
+        <v>248.544041538114</v>
       </c>
       <c r="BC133">
+        <v>304</v>
+      </c>
+      <c r="BF133">
+        <v>191</v>
+      </c>
+      <c r="BG133">
+        <v>158.095059407544</v>
+      </c>
+      <c r="BH133">
+        <v>229.231704430469</v>
+      </c>
+      <c r="BI133">
+        <v>146.381273819674</v>
+      </c>
+      <c r="BJ133">
+        <v>242.870006724245</v>
+      </c>
+      <c r="BK133">
+        <v>162.505974036855</v>
+      </c>
+      <c r="BL133">
+        <v>153</v>
+      </c>
+      <c r="BM133">
+        <v>71</v>
+      </c>
+      <c r="BN133">
+        <v>100.056079638529</v>
+      </c>
+      <c r="BO133">
+        <v>168.399023324844</v>
+      </c>
+      <c r="BP133">
+        <v>167.100093645504</v>
+      </c>
+      <c r="BQ133">
+        <v>245.956403007071</v>
+      </c>
+      <c r="BR133">
+        <v>267.027593494714</v>
+      </c>
+      <c r="BS133">
         <v>302</v>
       </c>
-      <c r="BF133">
-        <v>199</v>
-      </c>
-      <c r="BG133">
-        <v>146.938065489221</v>
-      </c>
-      <c r="BH133">
-        <v>215.263011285884</v>
-      </c>
-      <c r="BI133">
-        <v>182.419124866998</v>
-      </c>
-      <c r="BJ133">
-        <v>200.317435050438</v>
-      </c>
-      <c r="BK133">
-        <v>161</v>
-      </c>
-      <c r="BM133">
-        <v>66</v>
-      </c>
-      <c r="BN133">
-        <v>89.49694118228649</v>
-      </c>
-      <c r="BO133">
-        <v>176.315648782574</v>
-      </c>
-      <c r="BP133">
-        <v>188.745840462984</v>
-      </c>
-      <c r="BQ133">
-        <v>263.476006887176</v>
-      </c>
-      <c r="BR133">
-        <v>296</v>
-      </c>
       <c r="BT133">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="BU133">
-        <v>263.101788377599</v>
+        <v>250.1819760029</v>
       </c>
       <c r="BV133">
-        <v>196.284067775305</v>
+        <v>208.998306183996</v>
       </c>
       <c r="BW133">
-        <v>262.760673971655</v>
+        <v>247.819846563293</v>
       </c>
       <c r="BX133">
-        <v>215.689424006024</v>
+        <v>232.051287697183</v>
       </c>
       <c r="BY133">
-        <v>172</v>
+        <v>197.294250163801</v>
+      </c>
+      <c r="BZ133">
+        <v>159</v>
       </c>
       <c r="CA133">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="CB133">
-        <v>96.803193848416</v>
+        <v>95.2238602429743</v>
       </c>
       <c r="CC133">
-        <v>187.27292786786</v>
+        <v>196.905940964026</v>
       </c>
       <c r="CD133">
-        <v>204.743217167782</v>
+        <v>140.586481880819</v>
       </c>
       <c r="CE133">
-        <v>287.919146871868</v>
+        <v>291.600584431963</v>
       </c>
       <c r="CF133">
-        <v>308</v>
+        <v>274.360776359626</v>
+      </c>
+      <c r="CG133">
+        <v>306</v>
       </c>
     </row>
-    <row r="134" spans="1:84">
+    <row r="134" spans="1:85">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -33077,8 +33497,8 @@
       <c r="F134" t="s">
         <v>226</v>
       </c>
-      <c r="G134">
-        <v>1</v>
+      <c r="G134" t="s">
+        <v>464</v>
       </c>
       <c r="H134">
         <v>8</v>
@@ -33123,151 +33543,181 @@
         <v>60</v>
       </c>
       <c r="W134">
-        <v>257.8228761654466</v>
+        <v>286.1383072396389</v>
       </c>
       <c r="X134">
-        <v>49.40480502238818</v>
+        <v>54.09243360245948</v>
       </c>
       <c r="Y134">
-        <v>14.37024461229159</v>
+        <v>13.37969673918431</v>
+      </c>
+      <c r="Z134">
+        <v>0.13</v>
+      </c>
+      <c r="AA134">
+        <v>0.99</v>
       </c>
       <c r="AB134">
-        <v>329</v>
+        <v>375</v>
+      </c>
+      <c r="AC134">
+        <v>11267</v>
+      </c>
+      <c r="AD134">
+        <v>501</v>
       </c>
       <c r="AF134">
-        <v>20.12064290482245</v>
+        <v>17.25033273858324</v>
       </c>
       <c r="AG134">
-        <v>38.4408240397297</v>
+        <v>50.4457381615611</v>
       </c>
       <c r="AH134">
-        <v>-2.33024319188325</v>
+        <v>-9.858145433100271</v>
       </c>
       <c r="AI134">
-        <v>35.2566158662011</v>
+        <v>46.48600147114571</v>
       </c>
       <c r="AJ134">
-        <v>10.0678236188955</v>
+        <v>11.7744836825488</v>
       </c>
       <c r="AK134">
-        <v>4.876668955185076</v>
+        <v>14.1981275337107</v>
+      </c>
+      <c r="AL134">
+        <v>4.609772228646444</v>
       </c>
       <c r="AM134">
-        <v>7.632168761236874</v>
+        <v>4.620796183518</v>
       </c>
       <c r="AN134">
-        <v>55.4740165893454</v>
+        <v>38.5297974333816</v>
       </c>
       <c r="AO134">
-        <v>109.896053442456</v>
+        <v>116.809288211496</v>
       </c>
       <c r="AP134">
-        <v>155.37059538003</v>
+        <v>125.017679746879</v>
       </c>
       <c r="AQ134">
-        <v>210.096980290649</v>
+        <v>207.418303668736</v>
       </c>
       <c r="AR134">
-        <v>257.8228761654466</v>
+        <v>237.805847075262</v>
+      </c>
+      <c r="AS134">
+        <v>289.191372406214</v>
       </c>
       <c r="AT134">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="AU134">
-        <v>228.103244699796</v>
+        <v>268.703778749785</v>
       </c>
       <c r="AV134">
-        <v>227.902737201651</v>
+        <v>198.144837319773</v>
       </c>
       <c r="AW134">
-        <v>202.5</v>
+        <v>120</v>
       </c>
       <c r="AZ134">
-        <v>74.5</v>
+        <v>71</v>
       </c>
       <c r="BA134">
-        <v>162.3245704757</v>
+        <v>175.353993362262</v>
       </c>
       <c r="BB134">
-        <v>211.313771229894</v>
+        <v>249.679834462575</v>
       </c>
       <c r="BC134">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="BF134">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="BG134">
-        <v>107.249174028898</v>
+        <v>198.216165013982</v>
       </c>
       <c r="BH134">
-        <v>298.156704849932</v>
+        <v>283.230215577041</v>
       </c>
       <c r="BI134">
-        <v>141.570096516063</v>
+        <v>175.572384347136</v>
       </c>
       <c r="BJ134">
-        <v>220.053030394407</v>
+        <v>176.384786057009</v>
       </c>
       <c r="BK134">
-        <v>198</v>
+        <v>153.617893063451</v>
+      </c>
+      <c r="BL134">
+        <v>118</v>
       </c>
       <c r="BM134">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="BN134">
-        <v>124.706114428154</v>
+        <v>107.740031676637</v>
       </c>
       <c r="BO134">
-        <v>144.322424098607</v>
+        <v>170.948135208974</v>
       </c>
       <c r="BP134">
-        <v>218.460347558944</v>
+        <v>204.737003228706</v>
       </c>
       <c r="BQ134">
-        <v>259.884168525494</v>
+        <v>226.024971296365</v>
       </c>
       <c r="BR134">
-        <v>311</v>
+        <v>274.436414121705</v>
+      </c>
+      <c r="BS134">
+        <v>302</v>
       </c>
       <c r="BT134">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="BU134">
-        <v>219.27319078126</v>
+        <v>280.905712658587</v>
       </c>
       <c r="BV134">
-        <v>263.634306847584</v>
+        <v>282.317298744604</v>
       </c>
       <c r="BW134">
-        <v>228.413965002127</v>
+        <v>253.647407663291</v>
       </c>
       <c r="BX134">
-        <v>235.296923840617</v>
+        <v>201.540585936265</v>
       </c>
       <c r="BY134">
-        <v>207</v>
+        <v>171.758259120079</v>
+      </c>
+      <c r="BZ134">
+        <v>122</v>
       </c>
       <c r="CA134">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="CB134">
-        <v>100.542039685166</v>
+        <v>121.459620164681</v>
       </c>
       <c r="CC134">
-        <v>163.034318175333</v>
+        <v>172.049820664102</v>
       </c>
       <c r="CD134">
-        <v>205.664914575687</v>
+        <v>226.486495773452</v>
       </c>
       <c r="CE134">
-        <v>268.760671674686</v>
+        <v>252.900390713027</v>
       </c>
       <c r="CF134">
-        <v>313</v>
+        <v>291.950470075532</v>
+      </c>
+      <c r="CG134">
+        <v>310</v>
       </c>
     </row>
-    <row r="135" spans="1:84">
+    <row r="135" spans="1:85">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -33283,8 +33733,8 @@
       <c r="F135" t="s">
         <v>227</v>
       </c>
-      <c r="G135">
-        <v>1</v>
+      <c r="G135" t="s">
+        <v>465</v>
       </c>
       <c r="H135">
         <v>11</v>
@@ -33329,151 +33779,181 @@
         <v>60</v>
       </c>
       <c r="W135">
-        <v>327.2246596861743</v>
+        <v>278.9289528235027</v>
       </c>
       <c r="X135">
-        <v>72.13875396094265</v>
+        <v>52.20593904349677</v>
       </c>
       <c r="Y135">
-        <v>100</v>
+        <v>20.70810641861016</v>
+      </c>
+      <c r="Z135">
+        <v>0.2</v>
+      </c>
+      <c r="AA135">
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>482</v>
+        <v>406</v>
+      </c>
+      <c r="AC135">
+        <v>11656</v>
+      </c>
+      <c r="AD135">
+        <v>496</v>
       </c>
       <c r="AF135">
-        <v>5.670250378893438</v>
+        <v>15.56036631959543</v>
       </c>
       <c r="AG135">
-        <v>22.8957475729641</v>
+        <v>39.2208109795127</v>
       </c>
       <c r="AH135">
-        <v>33.7044787624345</v>
+        <v>17.8301700299343</v>
       </c>
       <c r="AI135">
-        <v>31.2510207974165</v>
+        <v>21.2911306926139</v>
       </c>
       <c r="AJ135">
-        <v>29.3764869480808</v>
+        <v>29.2913161085728</v>
       </c>
       <c r="AK135">
-        <v>36.06937698047133</v>
+        <v>16.4738674085495</v>
+      </c>
+      <c r="AL135">
+        <v>5.186788773198475</v>
       </c>
       <c r="AM135">
-        <v>3.205897343611886</v>
+        <v>5.062114182829147</v>
       </c>
       <c r="AN135">
-        <v>67.64551587930279</v>
+        <v>43.3422133029678</v>
       </c>
       <c r="AO135">
-        <v>129.041421574885</v>
+        <v>100.574993470981</v>
       </c>
       <c r="AP135">
-        <v>198.501139575486</v>
+        <v>139.480050861445</v>
       </c>
       <c r="AQ135">
-        <v>262.693768993478</v>
+        <v>186.745681014942</v>
       </c>
       <c r="AR135">
-        <v>327.2246596861743</v>
+        <v>235.200847105804</v>
+      </c>
+      <c r="AS135">
+        <v>278.9289528235027</v>
       </c>
       <c r="AT135">
-        <v>69.5</v>
+        <v>194.5</v>
       </c>
       <c r="AU135">
-        <v>107.110352548935</v>
+        <v>259.893478768332</v>
       </c>
       <c r="AV135">
-        <v>129.892845523778</v>
+        <v>221.320611894746</v>
       </c>
       <c r="AW135">
-        <v>276.5</v>
+        <v>136.5</v>
       </c>
       <c r="AZ135">
-        <v>75.5</v>
+        <v>74</v>
       </c>
       <c r="BA135">
-        <v>197.070977822865</v>
+        <v>187.888259164658</v>
       </c>
       <c r="BB135">
-        <v>282.153419160269</v>
+        <v>229.810666237529</v>
       </c>
       <c r="BC135">
-        <v>282.5</v>
+        <v>309.5</v>
       </c>
       <c r="BF135">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="BG135">
-        <v>58.3056500143204</v>
+        <v>165.443853939835</v>
       </c>
       <c r="BH135">
-        <v>96.50644424397949</v>
+        <v>225.956907123999</v>
       </c>
       <c r="BI135">
-        <v>84.5912608324327</v>
+        <v>246.314156607143</v>
       </c>
       <c r="BJ135">
-        <v>188.695682483808</v>
+        <v>143.544199895148</v>
       </c>
       <c r="BK135">
-        <v>247</v>
+        <v>166.282438042454</v>
+      </c>
+      <c r="BL135">
+        <v>133</v>
       </c>
       <c r="BM135">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="BN135">
-        <v>141.361603924189</v>
+        <v>124.414387405273</v>
       </c>
       <c r="BO135">
-        <v>213.20652870399</v>
+        <v>138.466435781236</v>
       </c>
       <c r="BP135">
-        <v>280.647933934082</v>
+        <v>232.867686248811</v>
       </c>
       <c r="BQ135">
-        <v>318.06932504972</v>
+        <v>217.305760906667</v>
       </c>
       <c r="BR135">
-        <v>311</v>
+        <v>275.798582720736</v>
+      </c>
+      <c r="BS135">
+        <v>306</v>
       </c>
       <c r="BT135">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="BU135">
-        <v>99.29224399765009</v>
+        <v>248.952938111959</v>
       </c>
       <c r="BV135">
-        <v>165.324043178552</v>
+        <v>251.429567546124</v>
       </c>
       <c r="BW135">
-        <v>123.008215344536</v>
+        <v>300.089383950887</v>
       </c>
       <c r="BX135">
-        <v>262.25655202927</v>
+        <v>200.235714437195</v>
       </c>
       <c r="BY135">
-        <v>306</v>
+        <v>191.756396520304</v>
+      </c>
+      <c r="BZ135">
+        <v>140</v>
       </c>
       <c r="CA135">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="CB135">
-        <v>139.185065933029</v>
+        <v>101.56700626981</v>
       </c>
       <c r="CC135">
-        <v>144.644994290574</v>
+        <v>153.320170373775</v>
       </c>
       <c r="CD135">
-        <v>318.311420140276</v>
+        <v>221.105249255427</v>
       </c>
       <c r="CE135">
-        <v>219.675378411164</v>
+        <v>253.928210249886</v>
       </c>
       <c r="CF135">
-        <v>254</v>
+        <v>292.315194185687</v>
+      </c>
+      <c r="CG135">
+        <v>313</v>
       </c>
     </row>
-    <row r="136" spans="1:84">
+    <row r="136" spans="1:85">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -33489,8 +33969,8 @@
       <c r="F136" t="s">
         <v>228</v>
       </c>
-      <c r="G136">
-        <v>1</v>
+      <c r="G136" t="s">
+        <v>466</v>
       </c>
       <c r="H136">
         <v>4</v>
@@ -33535,151 +34015,181 @@
         <v>60</v>
       </c>
       <c r="W136">
-        <v>251.0549081744201</v>
+        <v>254.1789016635041</v>
       </c>
       <c r="X136">
-        <v>33.72947041182661</v>
+        <v>32.8540615646173</v>
       </c>
       <c r="Y136">
-        <v>25.45616728990861</v>
+        <v>38.0075298261305</v>
+      </c>
+      <c r="Z136">
+        <v>0.36</v>
+      </c>
+      <c r="AA136">
+        <v>0.97</v>
       </c>
       <c r="AB136">
-        <v>424</v>
+        <v>398</v>
+      </c>
+      <c r="AC136">
+        <v>6653</v>
+      </c>
+      <c r="AD136">
+        <v>472</v>
       </c>
       <c r="AF136">
-        <v>9.935512094278442</v>
+        <v>8.118052585305032</v>
       </c>
       <c r="AG136">
-        <v>27.9402671935255</v>
+        <v>29.7547454997932</v>
       </c>
       <c r="AH136">
-        <v>1.62851931790582</v>
+        <v>-2.58895643409492</v>
       </c>
       <c r="AI136">
-        <v>34.0851312435422</v>
+        <v>37.5292772702349</v>
       </c>
       <c r="AJ136">
-        <v>1.84843486942262</v>
+        <v>4.47089950956365</v>
       </c>
       <c r="AK136">
-        <v>3.890827695447877</v>
+        <v>7.12770208896817</v>
+      </c>
+      <c r="AL136">
+        <v>2.57390753524675</v>
       </c>
       <c r="AM136">
-        <v>3.807886552931954</v>
+        <v>4.270375991772988</v>
       </c>
       <c r="AN136">
-        <v>52.4760240117357</v>
+        <v>43.7363546941214</v>
       </c>
       <c r="AO136">
-        <v>105.832858968632</v>
+        <v>92.3616223959053</v>
       </c>
       <c r="AP136">
-        <v>154.851369657048</v>
+        <v>131.568779833122</v>
       </c>
       <c r="AQ136">
-        <v>206.7590507145</v>
+        <v>176.474338485279</v>
       </c>
       <c r="AR136">
-        <v>255.9880915359451</v>
+        <v>218.851018086025</v>
+      </c>
+      <c r="AS136">
+        <v>261.9242950683391</v>
       </c>
       <c r="AT136">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="AU136">
-        <v>150.670114387273</v>
+        <v>133.132964755294</v>
       </c>
       <c r="AV136">
-        <v>191.241564221852</v>
+        <v>194.054431237389</v>
       </c>
       <c r="AW136">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="AZ136">
+        <v>69.5</v>
+      </c>
+      <c r="BA136">
+        <v>159.778905838538</v>
+      </c>
+      <c r="BB136">
+        <v>232.939727561048</v>
+      </c>
+      <c r="BC136">
+        <v>304.5</v>
+      </c>
+      <c r="BF136">
+        <v>149</v>
+      </c>
+      <c r="BG136">
+        <v>131.113816258741</v>
+      </c>
+      <c r="BH136">
+        <v>131.382759834619</v>
+      </c>
+      <c r="BI136">
+        <v>133.250253766122</v>
+      </c>
+      <c r="BJ136">
+        <v>198.212782331418</v>
+      </c>
+      <c r="BK136">
+        <v>201.945707040131</v>
+      </c>
+      <c r="BL136">
+        <v>236</v>
+      </c>
+      <c r="BM136">
         <v>69</v>
       </c>
-      <c r="BA136">
-        <v>150.976075697736</v>
-      </c>
-      <c r="BB136">
-        <v>232.964402672929</v>
-      </c>
-      <c r="BC136">
-        <v>311</v>
-      </c>
-      <c r="BF136">
-        <v>184</v>
-      </c>
-      <c r="BG136">
-        <v>156.95455645551</v>
-      </c>
-      <c r="BH136">
-        <v>128.086268370964</v>
-      </c>
-      <c r="BI136">
-        <v>176.770125606343</v>
-      </c>
-      <c r="BJ136">
-        <v>192.375763466405</v>
-      </c>
-      <c r="BK136">
-        <v>217</v>
-      </c>
-      <c r="BM136">
-        <v>67</v>
-      </c>
       <c r="BN136">
-        <v>104.638648532503</v>
+        <v>101.414596650387</v>
       </c>
       <c r="BO136">
-        <v>176.84942278533</v>
+        <v>180.517964381586</v>
       </c>
       <c r="BP136">
-        <v>213.78108626255</v>
+        <v>184.654266122113</v>
       </c>
       <c r="BQ136">
-        <v>266.010312286961</v>
+        <v>242.679736261048</v>
       </c>
       <c r="BR136">
-        <v>312</v>
+        <v>269.89076921323</v>
+      </c>
+      <c r="BS136">
+        <v>306</v>
       </c>
       <c r="BT136">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="BU136">
-        <v>216.212599408405</v>
+        <v>188.695494226457</v>
       </c>
       <c r="BV136">
-        <v>124.797885516124</v>
+        <v>122.675583224264</v>
       </c>
       <c r="BW136">
-        <v>255.844731929643</v>
+        <v>215.85213188047</v>
       </c>
       <c r="BX136">
-        <v>191.166690705001</v>
+        <v>201.711554273854</v>
       </c>
       <c r="BY136">
-        <v>225</v>
+        <v>216.188680749388</v>
+      </c>
+      <c r="BZ136">
+        <v>240</v>
       </c>
       <c r="CA136">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="CB136">
-        <v>124.095675723047</v>
+        <v>93.2764558903571</v>
       </c>
       <c r="CC136">
-        <v>160.150258668451</v>
+        <v>207.72721078835</v>
       </c>
       <c r="CD136">
-        <v>221.03399294371</v>
+        <v>128.268630589087</v>
       </c>
       <c r="CE136">
-        <v>261.20242661198</v>
+        <v>263.285817841549</v>
       </c>
       <c r="CF136">
-        <v>310</v>
+        <v>257.397596552986</v>
+      </c>
+      <c r="CG136">
+        <v>303</v>
       </c>
     </row>
-    <row r="137" spans="1:84">
+    <row r="137" spans="1:85">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -33695,8 +34205,8 @@
       <c r="F137" t="s">
         <v>229</v>
       </c>
-      <c r="G137">
-        <v>1</v>
+      <c r="G137" t="s">
+        <v>467</v>
       </c>
       <c r="H137">
         <v>5</v>
@@ -33741,151 +34251,181 @@
         <v>60</v>
       </c>
       <c r="W137">
-        <v>248.070439410586</v>
+        <v>230.9503872072759</v>
       </c>
       <c r="X137">
-        <v>135.994183350359</v>
+        <v>128.1128145624209</v>
       </c>
       <c r="Y137">
-        <v>77.20385722836546</v>
+        <v>79.83869180060076</v>
+      </c>
+      <c r="Z137">
+        <v>0.65</v>
+      </c>
+      <c r="AA137">
+        <v>0.9400000000000001</v>
       </c>
       <c r="AB137">
-        <v>508</v>
+        <v>425</v>
+      </c>
+      <c r="AC137">
+        <v>23645</v>
+      </c>
+      <c r="AD137">
+        <v>541</v>
       </c>
       <c r="AF137">
-        <v>43.30998886769844</v>
+        <v>26.27302047611336</v>
       </c>
       <c r="AG137">
-        <v>69.3194983098234</v>
+        <v>53.67857794171479</v>
       </c>
       <c r="AH137">
-        <v>16.4078098869556</v>
+        <v>86.7505607093462</v>
       </c>
       <c r="AI137">
-        <v>106.456392640644</v>
+        <v>-49.3617302372413</v>
       </c>
       <c r="AJ137">
-        <v>79.09814229003329</v>
+        <v>199.484289262109</v>
       </c>
       <c r="AK137">
-        <v>7.633860419918715</v>
+        <v>1.74882859485779</v>
+      </c>
+      <c r="AL137">
+        <v>5.630552814777604</v>
       </c>
       <c r="AM137">
-        <v>20.50609665440988</v>
+        <v>5.317104939557962</v>
       </c>
       <c r="AN137">
-        <v>83.66904495469609</v>
+        <v>17.3763236612593</v>
       </c>
       <c r="AO137">
-        <v>93.84153896195031</v>
+        <v>175.063995773969</v>
       </c>
       <c r="AP137">
-        <v>214.791362005741</v>
+        <v>3.19305450752227</v>
       </c>
       <c r="AQ137">
-        <v>228.915197695912</v>
+        <v>317.215394072519</v>
       </c>
       <c r="AR137">
-        <v>250.1769136190282</v>
+        <v>180.611453814266</v>
+      </c>
+      <c r="AS137">
+        <v>246.1570507820597</v>
       </c>
       <c r="AT137">
-        <v>184.5</v>
+        <v>201</v>
       </c>
       <c r="AU137">
-        <v>183.683136496657</v>
+        <v>191.414974250478</v>
       </c>
       <c r="AV137">
-        <v>191.630291602925</v>
+        <v>194.503060749287</v>
       </c>
       <c r="AW137">
-        <v>192.5</v>
+        <v>188</v>
       </c>
       <c r="AZ137">
-        <v>86.5</v>
+        <v>69.5</v>
       </c>
       <c r="BA137">
-        <v>162.753501287988</v>
+        <v>149.911027959245</v>
       </c>
       <c r="BB137">
-        <v>240.864504418453</v>
+        <v>229.007554576384</v>
       </c>
       <c r="BC137">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="BF137">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="BG137">
-        <v>113.909812634497</v>
+        <v>153.52495101535</v>
       </c>
       <c r="BH137">
-        <v>163.03574790356</v>
+        <v>82.22252504217441</v>
       </c>
       <c r="BI137">
-        <v>98.15113101052559</v>
+        <v>266.494473402756</v>
       </c>
       <c r="BJ137">
-        <v>107.308006064009</v>
+        <v>-17.3133789788154</v>
       </c>
       <c r="BK137">
-        <v>189</v>
+        <v>190.296913810425</v>
+      </c>
+      <c r="BL137">
+        <v>183</v>
       </c>
       <c r="BM137">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="BN137">
-        <v>172.119995528294</v>
+        <v>69.3606764733767</v>
       </c>
       <c r="BO137">
-        <v>93.7994221744886</v>
+        <v>267.885649518211</v>
       </c>
       <c r="BP137">
-        <v>367.318249396866</v>
+        <v>15.7151544411144</v>
       </c>
       <c r="BQ137">
-        <v>268.838771278759</v>
+        <v>422.39070362349</v>
       </c>
       <c r="BR137">
-        <v>316</v>
+        <v>225.091947692698</v>
+      </c>
+      <c r="BS137">
+        <v>309</v>
       </c>
       <c r="BT137">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BU137">
-        <v>256.480581852249</v>
+        <v>253.297808799787</v>
       </c>
       <c r="BV137">
-        <v>186.239091227538</v>
+        <v>259.421666492018</v>
       </c>
       <c r="BW137">
-        <v>331.447777192024</v>
+        <v>172.54087107489</v>
       </c>
       <c r="BX137">
-        <v>248.525736961194</v>
+        <v>378.951721387461</v>
       </c>
       <c r="BY137">
-        <v>196</v>
+        <v>187.335878295468</v>
+      </c>
+      <c r="BZ137">
+        <v>193</v>
       </c>
       <c r="CA137">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="CB137">
-        <v>161.333215035892</v>
+        <v>87.05199995702141</v>
       </c>
       <c r="CC137">
-        <v>132.101551620689</v>
+        <v>255.86215902168</v>
       </c>
       <c r="CD137">
-        <v>313.146837836233</v>
+        <v>43.0100411782778</v>
       </c>
       <c r="CE137">
-        <v>285.389303396262</v>
+        <v>413.907198435696</v>
       </c>
       <c r="CF137">
-        <v>316</v>
+        <v>236.155676195847</v>
+      </c>
+      <c r="CG137">
+        <v>311</v>
       </c>
     </row>
-    <row r="138" spans="1:84">
+    <row r="138" spans="1:85">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -33901,8 +34441,8 @@
       <c r="F138" t="s">
         <v>230</v>
       </c>
-      <c r="G138">
-        <v>1</v>
+      <c r="G138" t="s">
+        <v>468</v>
       </c>
       <c r="H138">
         <v>6</v>
@@ -33947,151 +34487,181 @@
         <v>60</v>
       </c>
       <c r="W138">
-        <v>243.0484526825069</v>
+        <v>170.0714166382338</v>
       </c>
       <c r="X138">
-        <v>121.3652556503718</v>
+        <v>81.97414976782541</v>
       </c>
       <c r="Y138">
-        <v>77.43371017226714</v>
+        <v>77.95884464217521</v>
+      </c>
+      <c r="Z138">
+        <v>0.6</v>
+      </c>
+      <c r="AA138">
+        <v>0.9</v>
       </c>
       <c r="AB138">
-        <v>453</v>
+        <v>302</v>
+      </c>
+      <c r="AC138">
+        <v>10628</v>
+      </c>
+      <c r="AD138">
+        <v>422</v>
       </c>
       <c r="AF138">
-        <v>20.24599586684816</v>
+        <v>13.75</v>
       </c>
       <c r="AG138">
-        <v>77.4832578493737</v>
+        <v>47.9966190893779</v>
       </c>
       <c r="AH138">
-        <v>-12.6679762417675</v>
+        <v>6.65502812220112</v>
       </c>
       <c r="AI138">
-        <v>93.35095822373958</v>
+        <v>28.2851028571644</v>
       </c>
       <c r="AJ138">
-        <v>61.8442936628327</v>
+        <v>103.810676218267</v>
       </c>
       <c r="AK138">
-        <v>48.6613705760265</v>
+        <v>-10.3850819760044</v>
+      </c>
+      <c r="AL138">
+        <v>1.5</v>
       </c>
       <c r="AM138">
-        <v>3</v>
+        <v>4.397758267319582</v>
       </c>
       <c r="AN138">
-        <v>44.50184758166061</v>
+        <v>28.842510317623</v>
       </c>
       <c r="AO138">
-        <v>89.54747596993879</v>
+        <v>91.4569046585848</v>
       </c>
       <c r="AP138">
-        <v>163.285735315317</v>
+        <v>65.37780452467521</v>
       </c>
       <c r="AQ138">
-        <v>193.771021309972</v>
+        <v>223.422754273231</v>
       </c>
       <c r="AR138">
-        <v>243.0484526825069</v>
+        <v>118.219530150231</v>
+      </c>
+      <c r="AS138">
+        <v>197.8261098389896</v>
       </c>
       <c r="AT138">
-        <v>206</v>
+        <v>190.5</v>
       </c>
       <c r="AU138">
-        <v>210.371176784748</v>
+        <v>195.196165574746</v>
       </c>
       <c r="AV138">
-        <v>170.125672552515</v>
+        <v>185.224917972108</v>
       </c>
       <c r="AW138">
-        <v>205.5</v>
+        <v>198.5</v>
       </c>
       <c r="AZ138">
-        <v>68</v>
+        <v>69.5</v>
       </c>
       <c r="BA138">
-        <v>145.764862275</v>
+        <v>146.562619374517</v>
       </c>
       <c r="BB138">
-        <v>230.994866802302</v>
+        <v>177.982674186416</v>
       </c>
       <c r="BC138">
-        <v>305</v>
+        <v>262.5</v>
       </c>
       <c r="BF138">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="BG138">
-        <v>114.905328472866</v>
+        <v>132.288205015586</v>
       </c>
       <c r="BH138">
-        <v>232.186375584173</v>
+        <v>226.216103062235</v>
       </c>
       <c r="BI138">
-        <v>81.88360887707421</v>
+        <v>100.606732055961</v>
       </c>
       <c r="BJ138">
-        <v>110.612521935451</v>
+        <v>134.443678864185</v>
       </c>
       <c r="BK138">
-        <v>177</v>
+        <v>188.367903022621</v>
+      </c>
+      <c r="BL138">
+        <v>197</v>
       </c>
       <c r="BM138">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BN138">
-        <v>85.99994507019079</v>
+        <v>104.015734880631</v>
       </c>
       <c r="BO138">
-        <v>206.27970012123</v>
+        <v>133.171008545838</v>
       </c>
       <c r="BP138">
-        <v>185.706451596222</v>
+        <v>150.494823821512</v>
       </c>
       <c r="BQ138">
-        <v>310.365934446258</v>
+        <v>291.746170611415</v>
       </c>
       <c r="BR138">
-        <v>309</v>
+        <v>178.75688979057</v>
+      </c>
+      <c r="BS138">
+        <v>262</v>
       </c>
       <c r="BT138">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="BU138">
-        <v>267.956630311334</v>
+        <v>229.819480513188</v>
       </c>
       <c r="BV138">
-        <v>232.413547423143</v>
+        <v>224.103730815251</v>
       </c>
       <c r="BW138">
-        <v>233.751327719867</v>
+        <v>192.419168828496</v>
       </c>
       <c r="BX138">
-        <v>278.81302939033</v>
+        <v>309.985077644925</v>
       </c>
       <c r="BY138">
-        <v>234</v>
+        <v>176.180327780559</v>
+      </c>
+      <c r="BZ138">
+        <v>200</v>
       </c>
       <c r="CA138">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="CB138">
-        <v>92.12367755530892</v>
+        <v>82.87852089767921</v>
       </c>
       <c r="CC138">
-        <v>186.457663710594</v>
+        <v>193.348666221484</v>
       </c>
       <c r="CD138">
-        <v>182.611258396937</v>
+        <v>71.43251721669971</v>
       </c>
       <c r="CE138">
-        <v>274.642561063601</v>
+        <v>339.823363034597</v>
       </c>
       <c r="CF138">
-        <v>301</v>
+        <v>156.920309276293</v>
+      </c>
+      <c r="CG138">
+        <v>263</v>
       </c>
     </row>
-    <row r="139" spans="1:84">
+    <row r="139" spans="1:85">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -34107,8 +34677,8 @@
       <c r="F139" t="s">
         <v>231</v>
       </c>
-      <c r="G139">
-        <v>1</v>
+      <c r="G139" t="s">
+        <v>469</v>
       </c>
       <c r="H139">
         <v>5</v>
@@ -34153,151 +34723,181 @@
         <v>60</v>
       </c>
       <c r="W139">
-        <v>246.4719410110662</v>
+        <v>167.0255620119053</v>
       </c>
       <c r="X139">
-        <v>148.0130950867016</v>
+        <v>98.63929884053182</v>
       </c>
       <c r="Y139">
-        <v>74.61875552199307</v>
+        <v>75.16388873448075</v>
+      </c>
+      <c r="Z139">
+        <v>0.48</v>
+      </c>
+      <c r="AA139">
+        <v>0.8</v>
       </c>
       <c r="AB139">
-        <v>452</v>
+        <v>394</v>
+      </c>
+      <c r="AC139">
+        <v>13008</v>
+      </c>
+      <c r="AD139">
+        <v>467</v>
       </c>
       <c r="AF139">
-        <v>44.61373506324936</v>
+        <v>18.75539922262387</v>
       </c>
       <c r="AG139">
-        <v>76.5517880361902</v>
+        <v>88.1022492241939</v>
       </c>
       <c r="AH139">
-        <v>-5.10702146457252</v>
+        <v>-94.06580095441281</v>
       </c>
       <c r="AI139">
-        <v>159.803307942292</v>
+        <v>233.249132071915</v>
       </c>
       <c r="AJ139">
-        <v>49.9587788683591</v>
+        <v>-47.0462890672587</v>
       </c>
       <c r="AK139">
-        <v>7.944974933336152</v>
+        <v>7.99001999705966</v>
+      </c>
+      <c r="AL139">
+        <v>2</v>
       </c>
       <c r="AM139">
-        <v>22.5055548698538</v>
+        <v>5.006495780483593</v>
       </c>
       <c r="AN139">
-        <v>86.15669552331579</v>
+        <v>79.95944888128021</v>
       </c>
       <c r="AO139">
-        <v>93.01531666453761</v>
+        <v>-67.2454377121703</v>
       </c>
       <c r="AP139">
-        <v>220.827230459809</v>
+        <v>331.501892109867</v>
       </c>
       <c r="AQ139">
-        <v>221.078921095157</v>
+        <v>66.7888477005244</v>
       </c>
       <c r="AR139">
-        <v>250.6901337473665</v>
+        <v>170.068219545008</v>
+      </c>
+      <c r="AS139">
+        <v>219.3111670563577</v>
       </c>
       <c r="AT139">
-        <v>198.5</v>
+        <v>194.5</v>
       </c>
       <c r="AU139">
-        <v>199.539080235243</v>
+        <v>197.379610709986</v>
       </c>
       <c r="AV139">
-        <v>189.217421576462</v>
+        <v>187.346640218976</v>
       </c>
       <c r="AW139">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AZ139">
-        <v>86.5</v>
+        <v>70</v>
       </c>
       <c r="BA139">
-        <v>163.124108022417</v>
+        <v>141.19362820765</v>
       </c>
       <c r="BB139">
-        <v>238.039716672512</v>
+        <v>212.885452040362</v>
       </c>
       <c r="BC139">
-        <v>314.5</v>
+        <v>284</v>
       </c>
       <c r="BF139">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="BG139">
-        <v>121.353666102703</v>
+        <v>113.692481057524</v>
       </c>
       <c r="BH139">
-        <v>208.111113911256</v>
+        <v>288.727905138915</v>
       </c>
       <c r="BI139">
-        <v>11.7770731357649</v>
+        <v>-61.237296240079</v>
       </c>
       <c r="BJ139">
-        <v>156.725168297625</v>
+        <v>255.865424801611</v>
       </c>
       <c r="BK139">
-        <v>185</v>
+        <v>179.418741385259</v>
+      </c>
+      <c r="BL139">
+        <v>188</v>
       </c>
       <c r="BM139">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="BN139">
-        <v>172.439571617505</v>
+        <v>158.551156689689</v>
       </c>
       <c r="BO139">
-        <v>93.48554504533492</v>
+        <v>-36.6849601106787</v>
       </c>
       <c r="BP139">
-        <v>360.950152196615</v>
+        <v>458.03746957154</v>
       </c>
       <c r="BQ139">
-        <v>260.218466583041</v>
+        <v>79.41291960320508</v>
       </c>
       <c r="BR139">
-        <v>315</v>
+        <v>253.678899036351</v>
+      </c>
+      <c r="BS139">
+        <v>284</v>
       </c>
       <c r="BT139">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="BU139">
-        <v>281.075093149189</v>
+        <v>285.896185492166</v>
       </c>
       <c r="BV139">
-        <v>180.774495147253</v>
+        <v>101.229246912893</v>
       </c>
       <c r="BW139">
-        <v>361.481752029441</v>
+        <v>423.834278020066</v>
       </c>
       <c r="BX139">
-        <v>230.082627083935</v>
+        <v>134.910940674814</v>
       </c>
       <c r="BY139">
-        <v>197</v>
+        <v>200.634336368867</v>
+      </c>
+      <c r="BZ139">
+        <v>192</v>
       </c>
       <c r="CA139">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="CB139">
-        <v>150.982500382992</v>
+        <v>138.323191314944</v>
       </c>
       <c r="CC139">
-        <v>151.291943395291</v>
+        <v>11.5312961649905</v>
       </c>
       <c r="CD139">
-        <v>294.334653443442</v>
+        <v>385.799246614285</v>
       </c>
       <c r="CE139">
-        <v>282.981262266314</v>
+        <v>131.43639137138</v>
       </c>
       <c r="CF139">
-        <v>314</v>
+        <v>238.545874726446</v>
+      </c>
+      <c r="CG139">
+        <v>284</v>
       </c>
     </row>
-    <row r="140" spans="1:84">
+    <row r="140" spans="1:85">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -34313,8 +34913,8 @@
       <c r="F140" t="s">
         <v>232</v>
       </c>
-      <c r="G140">
-        <v>1</v>
+      <c r="G140" t="s">
+        <v>470</v>
       </c>
       <c r="H140">
         <v>5</v>
@@ -34359,154 +34959,187 @@
         <v>60</v>
       </c>
       <c r="W140">
-        <v>246.7620860530207</v>
+        <v>201.3062297175145</v>
       </c>
       <c r="X140">
-        <v>137.2557298698769</v>
+        <v>109.5073039528102</v>
       </c>
       <c r="Y140">
-        <v>74.77389457583116</v>
+        <v>74.90353081505026</v>
+      </c>
+      <c r="Z140">
+        <v>0.58</v>
+      </c>
+      <c r="AA140">
+        <v>0.9</v>
       </c>
       <c r="AB140">
-        <v>456</v>
+        <v>350</v>
+      </c>
+      <c r="AC140">
+        <v>17262</v>
+      </c>
+      <c r="AD140">
+        <v>501</v>
       </c>
       <c r="AF140">
-        <v>39.69830014274335</v>
+        <v>16.90763305597668</v>
       </c>
       <c r="AG140">
-        <v>62.7603820337182</v>
+        <v>67.60073353301129</v>
       </c>
       <c r="AH140">
-        <v>22.3799497729839</v>
+        <v>2.55529676360887</v>
       </c>
       <c r="AI140">
-        <v>101.04667029338</v>
+        <v>60.0780972964155</v>
       </c>
       <c r="AJ140">
-        <v>78.8999330175357</v>
+        <v>118.256051459005</v>
       </c>
       <c r="AK140">
-        <v>22.47806686886002</v>
+        <v>-10.2506697084993</v>
+      </c>
+      <c r="AL140">
+        <v>2.666666666666671</v>
       </c>
       <c r="AM140">
-        <v>21.55226206225231</v>
+        <v>3.808798294008831</v>
       </c>
       <c r="AN140">
-        <v>67.6830889826592</v>
+        <v>23.4613906004986</v>
       </c>
       <c r="AO140">
-        <v>128.976136535129</v>
+        <v>125.936507212228</v>
       </c>
       <c r="AP140">
-        <v>152.84820271095</v>
+        <v>42.4835504888064</v>
       </c>
       <c r="AQ140">
-        <v>240.716198511991</v>
+        <v>287.306506294978</v>
       </c>
       <c r="AR140">
-        <v>246.7620860530207</v>
+        <v>137.636921018833</v>
+      </c>
+      <c r="AS140">
+        <v>232.3744890943069</v>
       </c>
       <c r="AT140">
-        <v>190.5</v>
+        <v>192</v>
       </c>
       <c r="AU140">
-        <v>182.850431054221</v>
+        <v>182.172269167911</v>
       </c>
       <c r="AV140">
-        <v>196.409944552552</v>
+        <v>200.507568811811</v>
       </c>
       <c r="AW140">
-        <v>188.5</v>
+        <v>187.5</v>
       </c>
       <c r="AZ140">
-        <v>86.5</v>
+        <v>70.5</v>
       </c>
       <c r="BA140">
-        <v>161.696827148044</v>
+        <v>193.347665722535</v>
       </c>
       <c r="BB140">
-        <v>236.523891442052</v>
+        <v>152.635080765969</v>
       </c>
       <c r="BC140">
-        <v>311.5</v>
+        <v>298</v>
       </c>
       <c r="BF140">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="BG140">
-        <v>124.004290930237</v>
+        <v>130.665231657331</v>
       </c>
       <c r="BH140">
-        <v>163.303570811039</v>
+        <v>169.669359565919</v>
       </c>
       <c r="BI140">
-        <v>86.477320960367</v>
+        <v>137.795530977297</v>
       </c>
       <c r="BJ140">
-        <v>116.74019752207</v>
+        <v>79.55949758654221</v>
       </c>
       <c r="BK140">
-        <v>178</v>
+        <v>202.009449426973</v>
+      </c>
+      <c r="BL140">
+        <v>185</v>
       </c>
       <c r="BM140">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="BN140">
-        <v>139.167580588237</v>
+        <v>86.3577883295218</v>
       </c>
       <c r="BO140">
-        <v>174.832346767055</v>
+        <v>204.140461616201</v>
       </c>
       <c r="BP140">
-        <v>247.078414901751</v>
+        <v>78.8737048232628</v>
       </c>
       <c r="BQ140">
-        <v>300.344163195795</v>
+        <v>385.021170330798</v>
       </c>
       <c r="BR140">
-        <v>312</v>
+        <v>185.582883867381</v>
+      </c>
+      <c r="BS140">
+        <v>298</v>
       </c>
       <c r="BT140">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="BU140">
-        <v>256.16006762428</v>
+        <v>258.372175372419</v>
       </c>
       <c r="BV140">
-        <v>190.777861740765</v>
+        <v>173.430671043602</v>
       </c>
       <c r="BW140">
-        <v>323.234218484935</v>
+        <v>284.458879649519</v>
       </c>
       <c r="BX140">
-        <v>256.419456145902</v>
+        <v>285.268225396182</v>
       </c>
       <c r="BY140">
-        <v>199</v>
+        <v>189.949543339091</v>
+      </c>
+      <c r="BZ140">
+        <v>190</v>
       </c>
       <c r="CA140">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="CB140">
-        <v>145.805096358904</v>
+        <v>96.59551762279931</v>
       </c>
       <c r="CC140">
-        <v>172.378502023886</v>
+        <v>199.52838140763</v>
       </c>
       <c r="CD140">
-        <v>258.253852396538</v>
+        <v>96.2119479567844</v>
       </c>
       <c r="CE140">
-        <v>309.667789189727</v>
+        <v>386.782193691663</v>
       </c>
       <c r="CF140">
-        <v>311</v>
+        <v>183.700905937999</v>
+      </c>
+      <c r="CG140">
+        <v>298</v>
       </c>
     </row>
-    <row r="141" spans="1:84">
+    <row r="141" spans="1:85">
       <c r="A141" s="1">
         <v>139</v>
       </c>
+      <c r="B141">
+        <v>999</v>
+      </c>
       <c r="C141" t="s">
         <v>86</v>
       </c>
@@ -34613,103 +35246,115 @@
         <v>252.6089026269506</v>
       </c>
       <c r="AT141">
-        <v>177.5</v>
-      </c>
-      <c r="AU141">
-        <v>194.963404752057</v>
-      </c>
-      <c r="AV141">
-        <v>190.271983265111</v>
+        <v>246</v>
+      </c>
+      <c r="AU141" t="s">
+        <v>471</v>
+      </c>
+      <c r="AV141" t="s">
+        <v>472</v>
       </c>
       <c r="AW141">
-        <v>191.5</v>
+        <v>171.5</v>
       </c>
       <c r="AZ141">
-        <v>87.5</v>
-      </c>
-      <c r="BA141">
-        <v>162.822529623488</v>
-      </c>
-      <c r="BB141">
-        <v>239.486302527081</v>
+        <v>70.5</v>
+      </c>
+      <c r="BA141" t="s">
+        <v>473</v>
+      </c>
+      <c r="BB141" t="s">
+        <v>474</v>
       </c>
       <c r="BC141">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="BF141">
-        <v>141</v>
-      </c>
-      <c r="BG141">
-        <v>124.336529420265</v>
-      </c>
-      <c r="BH141">
-        <v>202.338387360949</v>
-      </c>
-      <c r="BI141">
-        <v>51.1541401512789</v>
-      </c>
-      <c r="BJ141">
-        <v>166.642706492401</v>
-      </c>
-      <c r="BK141">
-        <v>190</v>
+        <v>230</v>
+      </c>
+      <c r="BG141" t="s">
+        <v>475</v>
+      </c>
+      <c r="BH141" t="s">
+        <v>476</v>
+      </c>
+      <c r="BI141" t="s">
+        <v>477</v>
+      </c>
+      <c r="BJ141" t="s">
+        <v>478</v>
+      </c>
+      <c r="BK141" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL141">
+        <v>170</v>
       </c>
       <c r="BM141">
-        <v>92</v>
-      </c>
-      <c r="BN141">
-        <v>178.355116049219</v>
-      </c>
-      <c r="BO141">
-        <v>75.16578531828159</v>
-      </c>
-      <c r="BP141">
-        <v>404.925194674935</v>
-      </c>
-      <c r="BQ141">
-        <v>226.724827037986</v>
-      </c>
-      <c r="BR141">
-        <v>316</v>
+        <v>67</v>
+      </c>
+      <c r="BN141" t="s">
+        <v>480</v>
+      </c>
+      <c r="BO141" t="s">
+        <v>481</v>
+      </c>
+      <c r="BP141" t="s">
+        <v>482</v>
+      </c>
+      <c r="BQ141" t="s">
+        <v>483</v>
+      </c>
+      <c r="BR141" t="s">
+        <v>484</v>
+      </c>
+      <c r="BS141">
+        <v>239</v>
       </c>
       <c r="BT141">
-        <v>214</v>
-      </c>
-      <c r="BU141">
-        <v>250.083894486924</v>
-      </c>
-      <c r="BV141">
-        <v>180.278773597919</v>
-      </c>
-      <c r="BW141">
-        <v>350.072676730904</v>
-      </c>
-      <c r="BX141">
-        <v>200.327166779172</v>
-      </c>
-      <c r="BY141">
-        <v>193</v>
+        <v>262</v>
+      </c>
+      <c r="BU141" t="s">
+        <v>485</v>
+      </c>
+      <c r="BV141" t="s">
+        <v>486</v>
+      </c>
+      <c r="BW141" t="s">
+        <v>487</v>
+      </c>
+      <c r="BX141" t="s">
+        <v>488</v>
+      </c>
+      <c r="BY141" t="s">
+        <v>489</v>
+      </c>
+      <c r="BZ141">
+        <v>173</v>
       </c>
       <c r="CA141">
-        <v>83</v>
-      </c>
-      <c r="CB141">
-        <v>165.069857897024</v>
-      </c>
-      <c r="CC141">
-        <v>77.1530561385478</v>
-      </c>
-      <c r="CD141">
-        <v>382.561442267737</v>
-      </c>
-      <c r="CE141">
-        <v>226.292435347348</v>
-      </c>
-      <c r="CF141">
-        <v>316</v>
+        <v>74</v>
+      </c>
+      <c r="CB141" t="s">
+        <v>490</v>
+      </c>
+      <c r="CC141" t="s">
+        <v>491</v>
+      </c>
+      <c r="CD141" t="s">
+        <v>492</v>
+      </c>
+      <c r="CE141" t="s">
+        <v>493</v>
+      </c>
+      <c r="CF141" t="s">
+        <v>494</v>
+      </c>
+      <c r="CG141">
+        <v>241</v>
       </c>
     </row>
-    <row r="142" spans="1:84">
+    <row r="142" spans="1:85">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -34915,7 +35560,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="143" spans="1:84">
+    <row r="143" spans="1:85">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -35121,7 +35766,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="144" spans="1:84">
+    <row r="144" spans="1:85">
       <c r="A144" s="1">
         <v>142</v>
       </c>
